--- a/aggregated_trains_by_year_nostrike.xlsx
+++ b/aggregated_trains_by_year_nostrike.xlsx
@@ -9573,61 +9573,61 @@
         </is>
       </c>
       <c r="E110">
-        <v>93.14002160604547</v>
+        <v>93.13987452956806</v>
       </c>
       <c r="F110">
-        <v>3187</v>
+        <v>2958</v>
       </c>
       <c r="G110">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="H110">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="I110">
-        <v>16.17500000000523</v>
+        <v>16.64256756756824</v>
       </c>
       <c r="J110">
-        <v>1.175757775475842</v>
+        <v>1.131555115091764</v>
       </c>
       <c r="K110">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="L110">
-        <v>26.6203525641125</v>
+        <v>26.79804964540106</v>
       </c>
       <c r="M110">
-        <v>0.7301188857501195</v>
+        <v>0.7011118623683505</v>
       </c>
       <c r="N110">
-        <v>0.2560234764088606</v>
+        <v>0.2457130827852287</v>
       </c>
       <c r="O110">
-        <v>0.3146913766441876</v>
+        <v>0.3231378935587819</v>
       </c>
       <c r="P110">
-        <v>0.1583875048487091</v>
+        <v>0.1689794171292314</v>
       </c>
       <c r="Q110">
-        <v>0.1165266343925264</v>
+        <v>0.1226652625819654</v>
       </c>
       <c r="R110">
-        <v>0.1133575135271649</v>
+        <v>0.1066433566433527</v>
       </c>
       <c r="S110">
-        <v>0.04101349417850143</v>
+        <v>0.03286098730132074</v>
       </c>
       <c r="T110">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="U110">
-        <v>40.19692981842193</v>
+        <v>40.03285713714381</v>
       </c>
       <c r="V110">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="W110">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="X110" t="inlineStr">
         <is>
@@ -9657,61 +9657,61 @@
         </is>
       </c>
       <c r="E111">
-        <v>186.3989730163005</v>
+        <v>186.57045521008</v>
       </c>
       <c r="F111">
-        <v>4921</v>
+        <v>4561</v>
       </c>
       <c r="G111">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="H111">
-        <v>620</v>
+        <v>568</v>
       </c>
       <c r="I111">
-        <v>19.38088709675984</v>
+        <v>18.2766725351963</v>
       </c>
       <c r="J111">
-        <v>3.602715759228071</v>
+        <v>3.438273240772142</v>
       </c>
       <c r="K111">
-        <v>366</v>
+        <v>332</v>
       </c>
       <c r="L111">
-        <v>45.15336976319481</v>
+        <v>42.00341365460452</v>
       </c>
       <c r="M111">
-        <v>3.114998188370811</v>
+        <v>2.781606245334874</v>
       </c>
       <c r="N111">
-        <v>0.453053827720235</v>
+        <v>0.4514463883903796</v>
       </c>
       <c r="O111">
-        <v>0.1567235398984265</v>
+        <v>0.140770528924169</v>
       </c>
       <c r="P111">
-        <v>0.09144261326202295</v>
+        <v>0.09760691702982048</v>
       </c>
       <c r="Q111">
-        <v>0.1681918446175847</v>
+        <v>0.1726151058133614</v>
       </c>
       <c r="R111">
-        <v>0.0985628286117306</v>
+        <v>0.1022560098551006</v>
       </c>
       <c r="S111">
-        <v>0.03202534589002705</v>
+        <v>0.03530504998719849</v>
       </c>
       <c r="T111">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="U111">
-        <v>46.44341855662812</v>
+        <v>43.2927148809217</v>
       </c>
       <c r="V111">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="W111">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="X111" t="inlineStr">
         <is>
@@ -9741,61 +9741,61 @@
         </is>
       </c>
       <c r="E112">
-        <v>128.4055975122985</v>
+        <v>128.4043872199313</v>
       </c>
       <c r="F112">
-        <v>2251</v>
+        <v>2097</v>
       </c>
       <c r="G112">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="H112">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="I112">
-        <v>23.31336633662574</v>
+        <v>22.98373493975663</v>
       </c>
       <c r="J112">
-        <v>1.144447066736623</v>
+        <v>1.008655387326465</v>
       </c>
       <c r="K112">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="L112">
-        <v>31.14525089605968</v>
+        <v>30.80130522088615</v>
       </c>
       <c r="M112">
-        <v>4.118137000839214</v>
+        <v>3.971352593652623</v>
       </c>
       <c r="N112">
-        <v>0.2941542925413554</v>
+        <v>0.2994740868234464</v>
       </c>
       <c r="O112">
-        <v>0.2094683393070543</v>
+        <v>0.2045850066934464</v>
       </c>
       <c r="P112">
-        <v>0.1345536781020866</v>
+        <v>0.1206444826926994</v>
       </c>
       <c r="Q112">
-        <v>0.178213005632414</v>
+        <v>0.1755880665519819</v>
       </c>
       <c r="R112">
-        <v>0.122836661546429</v>
+        <v>0.1316121629375651</v>
       </c>
       <c r="S112">
-        <v>0.06077402287080914</v>
+        <v>0.0680961943010271</v>
       </c>
       <c r="T112">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="U112">
-        <v>42.03446329802543</v>
+        <v>42.48104577614706</v>
       </c>
       <c r="V112">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="W112">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X112" t="inlineStr">
         <is>
@@ -9825,61 +9825,61 @@
         </is>
       </c>
       <c r="E113">
-        <v>78.27958754206857</v>
+        <v>78.2612563044282</v>
       </c>
       <c r="F113">
-        <v>2376</v>
+        <v>2181</v>
       </c>
       <c r="G113">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H113">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="I113">
-        <v>16.92818181817091</v>
+        <v>16.980208333325</v>
       </c>
       <c r="J113">
-        <v>0.9194879006872863</v>
+        <v>0.8678144209226006</v>
       </c>
       <c r="K113">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="L113">
-        <v>17.12685897435038</v>
+        <v>16.53712121210868</v>
       </c>
       <c r="M113">
-        <v>2.579479928005822</v>
+        <v>2.574435721660401</v>
       </c>
       <c r="N113">
-        <v>0.2245674009248692</v>
+        <v>0.2193942421215041</v>
       </c>
       <c r="O113">
-        <v>0.35564119138791</v>
+        <v>0.3514667151032256</v>
       </c>
       <c r="P113">
-        <v>0.1193683804881985</v>
+        <v>0.1194964126780975</v>
       </c>
       <c r="Q113">
-        <v>0.1437679628064515</v>
+        <v>0.1544614476432951</v>
       </c>
       <c r="R113">
-        <v>0.1102579434141242</v>
+        <v>0.1140836436291731</v>
       </c>
       <c r="S113">
-        <v>0.04639712097860077</v>
+        <v>0.04109753882481074</v>
       </c>
       <c r="T113">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="U113">
-        <v>34.07529412588118</v>
+        <v>32.8883116974013</v>
       </c>
       <c r="V113">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="W113">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="X113" t="inlineStr">
         <is>
@@ -9909,61 +9909,61 @@
         </is>
       </c>
       <c r="E114">
-        <v>81.43412768758824</v>
+        <v>81.45932975330483</v>
       </c>
       <c r="F114">
-        <v>2509</v>
+        <v>2318</v>
       </c>
       <c r="G114">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="H114">
-        <v>743</v>
+        <v>649</v>
       </c>
       <c r="I114">
-        <v>13.31327949753822</v>
+        <v>13.1182845403228</v>
       </c>
       <c r="J114">
-        <v>5.034353838620482</v>
+        <v>4.753750552673887</v>
       </c>
       <c r="K114">
-        <v>400</v>
+        <v>346</v>
       </c>
       <c r="L114">
-        <v>16.5390416666745</v>
+        <v>16.11160886320404</v>
       </c>
       <c r="M114">
-        <v>1.849799924253563</v>
+        <v>1.557009495233619</v>
       </c>
       <c r="N114">
-        <v>0.158045410471254</v>
+        <v>0.1566998964985075</v>
       </c>
       <c r="O114">
-        <v>0.3145362468811925</v>
+        <v>0.2769205166255867</v>
       </c>
       <c r="P114">
-        <v>0.2083612584103035</v>
+        <v>0.235099720705559</v>
       </c>
       <c r="Q114">
-        <v>0.1079050281806773</v>
+        <v>0.1218555239083003</v>
       </c>
       <c r="R114">
-        <v>0.1163071260730672</v>
+        <v>0.1171180648243726</v>
       </c>
       <c r="S114">
-        <v>0.09484492998359025</v>
+        <v>0.09230627743769393</v>
       </c>
       <c r="T114">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="U114">
-        <v>30.94291045</v>
+        <v>30.56171171351351</v>
       </c>
       <c r="V114">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="W114">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X114" t="inlineStr">
         <is>
@@ -9993,61 +9993,61 @@
         </is>
       </c>
       <c r="E115">
-        <v>120.8366933801159</v>
+        <v>120.8174945729714</v>
       </c>
       <c r="F115">
-        <v>7039</v>
+        <v>6504</v>
       </c>
       <c r="G115">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="H115">
-        <v>982</v>
+        <v>904</v>
       </c>
       <c r="I115">
-        <v>12.18995247793737</v>
+        <v>11.98399705015077</v>
       </c>
       <c r="J115">
-        <v>2.613211041832069</v>
+        <v>2.58554620594344</v>
       </c>
       <c r="K115">
-        <v>687</v>
+        <v>605</v>
       </c>
       <c r="L115">
-        <v>24.02821445900437</v>
+        <v>23.04856749311405</v>
       </c>
       <c r="M115">
-        <v>2.369730699557536</v>
+        <v>2.100020663312745</v>
       </c>
       <c r="N115">
-        <v>0.2220423360690917</v>
+        <v>0.2267241072387868</v>
       </c>
       <c r="O115">
-        <v>0.273759469841179</v>
+        <v>0.2464838938527107</v>
       </c>
       <c r="P115">
-        <v>0.1562497666177643</v>
+        <v>0.1655679168039737</v>
       </c>
       <c r="Q115">
-        <v>0.14257745967411</v>
+        <v>0.1534309335472952</v>
       </c>
       <c r="R115">
-        <v>0.1366022869583242</v>
+        <v>0.1432574729592871</v>
       </c>
       <c r="S115">
-        <v>0.06876868083948297</v>
+        <v>0.06453567559789224</v>
       </c>
       <c r="T115">
-        <v>422</v>
+        <v>364</v>
       </c>
       <c r="U115">
-        <v>31.13854661579455</v>
+        <v>29.93260073919039</v>
       </c>
       <c r="V115">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="W115">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="X115" t="inlineStr">
         <is>
@@ -10077,61 +10077,61 @@
         </is>
       </c>
       <c r="E116">
-        <v>206.4316065004202</v>
+        <v>206.6425644931737</v>
       </c>
       <c r="F116">
-        <v>3910</v>
+        <v>3627</v>
       </c>
       <c r="G116">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="H116">
-        <v>686</v>
+        <v>621</v>
       </c>
       <c r="I116">
-        <v>23.56260932944986</v>
+        <v>21.95483091787617</v>
       </c>
       <c r="J116">
-        <v>4.667654620466053</v>
+        <v>4.299842725674433</v>
       </c>
       <c r="K116">
-        <v>554</v>
+        <v>485</v>
       </c>
       <c r="L116">
-        <v>45.15108303247275</v>
+        <v>43.1952577319433</v>
       </c>
       <c r="M116">
-        <v>6.119624599868844</v>
+        <v>5.501166855659162</v>
       </c>
       <c r="N116">
-        <v>0.4064103606930217</v>
+        <v>0.4168068862349629</v>
       </c>
       <c r="O116">
-        <v>0.2513086084477311</v>
+        <v>0.2128349877938722</v>
       </c>
       <c r="P116">
-        <v>0.1588156443035942</v>
+        <v>0.1752244679261625</v>
       </c>
       <c r="Q116">
-        <v>0.123816913351444</v>
+        <v>0.1331846804055604</v>
       </c>
       <c r="R116">
-        <v>0.03176053056710469</v>
+        <v>0.03421718336943341</v>
       </c>
       <c r="S116">
-        <v>0.02788794263669729</v>
+        <v>0.02773179426954371</v>
       </c>
       <c r="T116">
-        <v>546</v>
+        <v>477</v>
       </c>
       <c r="U116">
-        <v>45.6333028000608</v>
+        <v>43.71443046233375</v>
       </c>
       <c r="V116">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="W116">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="X116" t="inlineStr">
         <is>
@@ -10161,61 +10161,61 @@
         </is>
       </c>
       <c r="E117">
-        <v>167.2647138465246</v>
+        <v>167.3184471799017</v>
       </c>
       <c r="F117">
-        <v>3374</v>
+        <v>3114</v>
       </c>
       <c r="G117">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="H117">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="I117">
-        <v>21.70268199233334</v>
+        <v>20.93849765257747</v>
       </c>
       <c r="J117">
-        <v>1.264099071066546</v>
+        <v>1.096682808535236</v>
       </c>
       <c r="K117">
-        <v>326</v>
+        <v>291</v>
       </c>
       <c r="L117">
-        <v>29.81078732107086</v>
+        <v>29.19352806414983</v>
       </c>
       <c r="M117">
-        <v>3.872160325096591</v>
+        <v>3.715051039458864</v>
       </c>
       <c r="N117">
-        <v>0.3025368708385306</v>
+        <v>0.3114330580528385</v>
       </c>
       <c r="O117">
-        <v>0.2642835114380798</v>
+        <v>0.2342145179683986</v>
       </c>
       <c r="P117">
-        <v>0.1271092942468957</v>
+        <v>0.1286516492250103</v>
       </c>
       <c r="Q117">
-        <v>0.1332580854750617</v>
+        <v>0.1458492641404505</v>
       </c>
       <c r="R117">
-        <v>0.1166056432781598</v>
+        <v>0.1203210986552564</v>
       </c>
       <c r="S117">
-        <v>0.05620659472295553</v>
+        <v>0.05953041195767869</v>
       </c>
       <c r="T117">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="U117">
-        <v>37.10717390521739</v>
+        <v>36.72960198557214</v>
       </c>
       <c r="V117">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="W117">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="X117" t="inlineStr">
         <is>
@@ -10245,61 +10245,61 @@
         </is>
       </c>
       <c r="E118">
-        <v>233.6194013733936</v>
+        <v>233.6774072907274</v>
       </c>
       <c r="F118">
-        <v>3013</v>
+        <v>2817</v>
       </c>
       <c r="G118">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="H118">
-        <v>211</v>
+        <v>168</v>
       </c>
       <c r="I118">
-        <v>18.37575039493739</v>
+        <v>17.87073412697553</v>
       </c>
       <c r="J118">
-        <v>1.471082905641568</v>
+        <v>1.242943839083438</v>
       </c>
       <c r="K118">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="L118">
-        <v>43.85336644591092</v>
+        <v>42.63189762796292</v>
       </c>
       <c r="M118">
-        <v>5.817634107464563</v>
+        <v>5.507110956972073</v>
       </c>
       <c r="N118">
-        <v>0.44883966268499</v>
+        <v>0.4552418656586779</v>
       </c>
       <c r="O118">
-        <v>0.1834106219372179</v>
+        <v>0.1587640742510292</v>
       </c>
       <c r="P118">
-        <v>0.06272540788310994</v>
+        <v>0.06345720292396141</v>
       </c>
       <c r="Q118">
-        <v>0.1587943405906815</v>
+        <v>0.164628804713018</v>
       </c>
       <c r="R118">
-        <v>0.1015631002380271</v>
+        <v>0.1111312968984464</v>
       </c>
       <c r="S118">
-        <v>0.04466686666625762</v>
+        <v>0.04677675555509663</v>
       </c>
       <c r="T118">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="U118">
-        <v>43.93261351417109</v>
+        <v>42.71697995024624</v>
       </c>
       <c r="V118">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="W118">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="X118" t="inlineStr">
         <is>
@@ -10329,61 +10329,61 @@
         </is>
       </c>
       <c r="E119">
-        <v>158.7934909800244</v>
+        <v>158.7364281949659</v>
       </c>
       <c r="F119">
-        <v>3692</v>
+        <v>3458</v>
       </c>
       <c r="G119">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="H119">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="I119">
-        <v>22.16922442244753</v>
+        <v>22.30270018622682</v>
       </c>
       <c r="J119">
-        <v>1.361917593167018</v>
+        <v>1.297917800454937</v>
       </c>
       <c r="K119">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="L119">
-        <v>34.58008356547438</v>
+        <v>35.36051829269542</v>
       </c>
       <c r="M119">
-        <v>4.099495319010629</v>
+        <v>4.070369206994881</v>
       </c>
       <c r="N119">
-        <v>0.2375956635702092</v>
+        <v>0.2316976927491009</v>
       </c>
       <c r="O119">
-        <v>0.4132219789647964</v>
+        <v>0.4144716172206155</v>
       </c>
       <c r="P119">
-        <v>0.1591474102106919</v>
+        <v>0.1647375617854829</v>
       </c>
       <c r="Q119">
-        <v>0.1047168220510351</v>
+        <v>0.1051626192570781</v>
       </c>
       <c r="R119">
-        <v>0.06775616262424987</v>
+        <v>0.0647087267747125</v>
       </c>
       <c r="S119">
-        <v>0.01756196257887549</v>
+        <v>0.01922178221285457</v>
       </c>
       <c r="T119">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="U119">
-        <v>45.94519774562119</v>
+        <v>46.89892473532996</v>
       </c>
       <c r="V119">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="W119">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="X119" t="inlineStr">
         <is>
@@ -10413,61 +10413,61 @@
         </is>
       </c>
       <c r="E120">
-        <v>200.6595656239758</v>
+        <v>200.6397273574533</v>
       </c>
       <c r="F120">
-        <v>2272</v>
+        <v>2226</v>
       </c>
       <c r="G120">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="H120">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I120">
-        <v>19.94117647057843</v>
+        <v>19.81999999999</v>
       </c>
       <c r="J120">
-        <v>0.5376962396625606</v>
+        <v>0.5371275186493053</v>
       </c>
       <c r="K120">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L120">
-        <v>38.19045893719203</v>
+        <v>37.79315920397388</v>
       </c>
       <c r="M120">
-        <v>2.765327361590851</v>
+        <v>2.721843560437769</v>
       </c>
       <c r="N120">
-        <v>0.2811335403727102</v>
+        <v>0.2895255863539851</v>
       </c>
       <c r="O120">
-        <v>0.3233954451345508</v>
+        <v>0.3255863539445373</v>
       </c>
       <c r="P120">
-        <v>0.1512163561075616</v>
+        <v>0.1482675906182351</v>
       </c>
       <c r="Q120">
-        <v>0.1488095238094645</v>
+        <v>0.1383262260127321</v>
       </c>
       <c r="R120">
-        <v>0.0621118012421942</v>
+        <v>0.06396588486136418</v>
       </c>
       <c r="S120">
-        <v>0.03333333333332826</v>
+        <v>0.03432835820895</v>
       </c>
       <c r="T120">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="U120">
-        <v>40.29166666041719</v>
+        <v>39.93010752043065</v>
       </c>
       <c r="V120">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="W120">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X120" t="inlineStr">
         <is>
@@ -10497,61 +10497,61 @@
         </is>
       </c>
       <c r="E121">
-        <v>57.62363943621511</v>
+        <v>57.5458560443722</v>
       </c>
       <c r="F121">
-        <v>5106</v>
+        <v>4717</v>
       </c>
       <c r="G121">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="H121">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="I121">
-        <v>19.847611111117</v>
+        <v>18.55833333333473</v>
       </c>
       <c r="J121">
-        <v>1.355000414893811</v>
+        <v>1.219129132594189</v>
       </c>
       <c r="K121">
-        <v>600</v>
+        <v>544</v>
       </c>
       <c r="L121">
-        <v>20.92633333332617</v>
+        <v>20.33235294117151</v>
       </c>
       <c r="M121">
-        <v>2.721971984364741</v>
+        <v>2.610004017843159</v>
       </c>
       <c r="N121">
-        <v>0.2170922731194853</v>
+        <v>0.2180748572835941</v>
       </c>
       <c r="O121">
-        <v>0.2848006280507853</v>
+        <v>0.2694457537463514</v>
       </c>
       <c r="P121">
-        <v>0.07282126266910401</v>
+        <v>0.07449071007483088</v>
       </c>
       <c r="Q121">
-        <v>0.1556558157202505</v>
+        <v>0.1639100631209763</v>
       </c>
       <c r="R121">
-        <v>0.2124270631231467</v>
+        <v>0.2168139777786912</v>
       </c>
       <c r="S121">
-        <v>0.0572029573169835</v>
+        <v>0.05726463799528621</v>
       </c>
       <c r="T121">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="U121">
-        <v>39.88699712600862</v>
+        <v>39.31266339428431</v>
       </c>
       <c r="V121">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="W121">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="X121" t="inlineStr">
         <is>
@@ -10581,61 +10581,61 @@
         </is>
       </c>
       <c r="E122">
-        <v>139.5901365764325</v>
+        <v>138.9562283044985</v>
       </c>
       <c r="F122">
-        <v>6460</v>
+        <v>6002</v>
       </c>
       <c r="G122">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="H122">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="I122">
-        <v>15.51214442013348</v>
+        <v>15.64690366972638</v>
       </c>
       <c r="J122">
-        <v>1.514508585153727</v>
+        <v>1.560100876390018</v>
       </c>
       <c r="K122">
-        <v>672</v>
+        <v>630</v>
       </c>
       <c r="L122">
-        <v>30.45218253967381</v>
+        <v>30.98232804231873</v>
       </c>
       <c r="M122">
-        <v>3.789918514579763</v>
+        <v>3.907343152979639</v>
       </c>
       <c r="N122">
-        <v>0.3146933838752917</v>
+        <v>0.3177867639385111</v>
       </c>
       <c r="O122">
-        <v>0.3470858553067292</v>
+        <v>0.3328265383434444</v>
       </c>
       <c r="P122">
-        <v>0.1159128085912729</v>
+        <v>0.1220143129038644</v>
       </c>
       <c r="Q122">
-        <v>0.1259598081455058</v>
+        <v>0.1262270473877395</v>
       </c>
       <c r="R122">
-        <v>0.07770158759868616</v>
+        <v>0.08125567717843857</v>
       </c>
       <c r="S122">
-        <v>0.01864655648237158</v>
+        <v>0.01988966024786302</v>
       </c>
       <c r="T122">
-        <v>453</v>
+        <v>426</v>
       </c>
       <c r="U122">
-        <v>38.97744664687064</v>
+        <v>39.66381063927794</v>
       </c>
       <c r="V122">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="W122">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X122" t="inlineStr">
         <is>
@@ -10665,61 +10665,61 @@
         </is>
       </c>
       <c r="E123">
-        <v>268.4202911949462</v>
+        <v>268.4436558526724</v>
       </c>
       <c r="F123">
-        <v>2303</v>
+        <v>2131</v>
       </c>
       <c r="G123">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="H123">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="I123">
-        <v>19.13079710144058</v>
+        <v>19.26708333332666</v>
       </c>
       <c r="J123">
-        <v>1.332405828055686</v>
+        <v>1.271952427035084</v>
       </c>
       <c r="K123">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="L123">
-        <v>46.839207048463</v>
+        <v>46.75628140703668</v>
       </c>
       <c r="M123">
-        <v>5.414287999632623</v>
+        <v>5.185877645778606</v>
       </c>
       <c r="N123">
-        <v>0.4338844534329735</v>
+        <v>0.4195566378356432</v>
       </c>
       <c r="O123">
-        <v>0.2866981556901762</v>
+        <v>0.2717612127722311</v>
       </c>
       <c r="P123">
-        <v>0.06953740587645947</v>
+        <v>0.07932156348721758</v>
       </c>
       <c r="Q123">
-        <v>0.09188643349242599</v>
+        <v>0.09979005227527789</v>
       </c>
       <c r="R123">
-        <v>0.09556581006074229</v>
+        <v>0.1039871300692869</v>
       </c>
       <c r="S123">
-        <v>0.02242774144708414</v>
+        <v>0.02558340356024171</v>
       </c>
       <c r="T123">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="U123">
-        <v>46.83920705242291</v>
+        <v>46.75628141557789</v>
       </c>
       <c r="V123">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="W123">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="X123" t="inlineStr">
         <is>
@@ -10749,61 +10749,61 @@
         </is>
       </c>
       <c r="E124">
-        <v>280.5886929053746</v>
+        <v>280.2778398489326</v>
       </c>
       <c r="F124">
-        <v>2499</v>
+        <v>2313</v>
       </c>
       <c r="G124">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="H124">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I124">
-        <v>30.90909090907576</v>
+        <v>30.06666666665333</v>
       </c>
       <c r="J124">
-        <v>0.4620184023830218</v>
+        <v>0.4455616029204969</v>
       </c>
       <c r="K124">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="L124">
-        <v>45.62954911434299</v>
+        <v>46.23541666667337</v>
       </c>
       <c r="M124">
-        <v>4.395395825668571</v>
+        <v>4.308298386660182</v>
       </c>
       <c r="N124">
-        <v>0.4637593146745894</v>
+        <v>0.440207489878538</v>
       </c>
       <c r="O124">
-        <v>0.2063493926193768</v>
+        <v>0.2104039362620489</v>
       </c>
       <c r="P124">
-        <v>0.1268068908801932</v>
+        <v>0.1263534044140924</v>
       </c>
       <c r="Q124">
-        <v>0.1180568478051198</v>
+        <v>0.1273791711720598</v>
       </c>
       <c r="R124">
-        <v>0.07409442409447536</v>
+        <v>0.08335622710628478</v>
       </c>
       <c r="S124">
-        <v>0.01093312992627053</v>
+        <v>0.01229977116705435</v>
       </c>
       <c r="T124">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="U124">
-        <v>45.09862460615145</v>
+        <v>45.64107469271694</v>
       </c>
       <c r="V124">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="W124">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="X124" t="inlineStr">
         <is>
@@ -10833,61 +10833,61 @@
         </is>
       </c>
       <c r="E125">
-        <v>137.2602688728449</v>
+        <v>136.9087983644462</v>
       </c>
       <c r="F125">
-        <v>6601</v>
+        <v>6096</v>
       </c>
       <c r="G125">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="H125">
-        <v>689</v>
+        <v>638</v>
       </c>
       <c r="I125">
-        <v>19.71335268504398</v>
+        <v>19.82053291535376</v>
       </c>
       <c r="J125">
-        <v>2.436244089682042</v>
+        <v>2.454830583331785</v>
       </c>
       <c r="K125">
-        <v>728</v>
+        <v>666</v>
       </c>
       <c r="L125">
-        <v>35.13848443223187</v>
+        <v>35.20843343343003</v>
       </c>
       <c r="M125">
-        <v>4.155752739518988</v>
+        <v>4.164390392645553</v>
       </c>
       <c r="N125">
-        <v>0.331514826362386</v>
+        <v>0.3173315219096292</v>
       </c>
       <c r="O125">
-        <v>0.3243097077454176</v>
+        <v>0.3244706715295526</v>
       </c>
       <c r="P125">
-        <v>0.1166925891818191</v>
+        <v>0.1140423497362437</v>
       </c>
       <c r="Q125">
-        <v>0.1048729285092886</v>
+        <v>0.1116328708029488</v>
       </c>
       <c r="R125">
-        <v>0.08843187880550853</v>
+        <v>0.09516277443004205</v>
       </c>
       <c r="S125">
-        <v>0.0341780693954566</v>
+        <v>0.03735981159143003</v>
       </c>
       <c r="T125">
-        <v>515</v>
+        <v>468</v>
       </c>
       <c r="U125">
-        <v>44.05974109508117</v>
+        <v>44.35206551830512</v>
       </c>
       <c r="V125">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="W125">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="X125" t="inlineStr">
         <is>
@@ -10917,61 +10917,61 @@
         </is>
       </c>
       <c r="E126">
-        <v>51.20174155893962</v>
+        <v>51.18309851160432</v>
       </c>
       <c r="F126">
-        <v>3720</v>
+        <v>3427</v>
       </c>
       <c r="G126">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="H126">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="I126">
-        <v>16.87296437658359</v>
+        <v>16.95528985506478</v>
       </c>
       <c r="J126">
-        <v>1.766511629019548</v>
+        <v>1.723788520557753</v>
       </c>
       <c r="K126">
-        <v>482</v>
+        <v>423</v>
       </c>
       <c r="L126">
-        <v>19.71365836790394</v>
+        <v>19.75646178092364</v>
       </c>
       <c r="M126">
-        <v>3.037150824629925</v>
+        <v>2.925065966625197</v>
       </c>
       <c r="N126">
-        <v>0.1699781567294954</v>
+        <v>0.1784707042724534</v>
       </c>
       <c r="O126">
-        <v>0.3051535594666991</v>
+        <v>0.3020683800327234</v>
       </c>
       <c r="P126">
-        <v>0.2443546548885884</v>
+        <v>0.2403972448354766</v>
       </c>
       <c r="Q126">
-        <v>0.1147134160403795</v>
+        <v>0.1231056376200435</v>
       </c>
       <c r="R126">
-        <v>0.1197229715673008</v>
+        <v>0.1110619375134208</v>
       </c>
       <c r="S126">
-        <v>0.04607724130757116</v>
+        <v>0.04489609572592151</v>
       </c>
       <c r="T126">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="U126">
-        <v>37.84578650786517</v>
+        <v>38.86456953443708</v>
       </c>
       <c r="V126">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="W126">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="X126" t="inlineStr">
         <is>
@@ -11001,61 +11001,61 @@
         </is>
       </c>
       <c r="E127">
-        <v>121.7373970180969</v>
+        <v>121.4337280078687</v>
       </c>
       <c r="F127">
-        <v>2746</v>
+        <v>2514</v>
       </c>
       <c r="G127">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H127">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="I127">
-        <v>22.97159763312485</v>
+        <v>23.05815602835816</v>
       </c>
       <c r="J127">
-        <v>1.6208763331084</v>
+        <v>1.495197458518531</v>
       </c>
       <c r="K127">
-        <v>197</v>
+        <v>154</v>
       </c>
       <c r="L127">
-        <v>35.28934010151218</v>
+        <v>35.52597402596493</v>
       </c>
       <c r="M127">
-        <v>1.361300514886427</v>
+        <v>0.9065756618447615</v>
       </c>
       <c r="N127">
-        <v>0.2986154100118325</v>
+        <v>0.3479437229436039</v>
       </c>
       <c r="O127">
-        <v>0.269100384985</v>
+        <v>0.269325912183013</v>
       </c>
       <c r="P127">
-        <v>0.1026837915224416</v>
+        <v>0.07006287363425324</v>
       </c>
       <c r="Q127">
-        <v>0.0973364501592731</v>
+        <v>0.09727375798802208</v>
       </c>
       <c r="R127">
-        <v>0.1877411069251731</v>
+        <v>0.1652494331064812</v>
       </c>
       <c r="S127">
-        <v>0.04452285639604823</v>
+        <v>0.05014430014427467</v>
       </c>
       <c r="T127">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="U127">
-        <v>41.34838707870838</v>
+        <v>41.883333314165</v>
       </c>
       <c r="V127">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="W127">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="X127" t="inlineStr">
         <is>
@@ -11085,61 +11085,61 @@
         </is>
       </c>
       <c r="E128">
-        <v>188.9535301615622</v>
+        <v>188.8016342409939</v>
       </c>
       <c r="F128">
-        <v>3180</v>
+        <v>2953</v>
       </c>
       <c r="G128">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H128">
-        <v>1411</v>
+        <v>1301</v>
       </c>
       <c r="I128">
-        <v>17.53590833923522</v>
+        <v>17.17230335638501</v>
       </c>
       <c r="J128">
-        <v>8.76921524687673</v>
+        <v>8.559805108386218</v>
       </c>
       <c r="K128">
-        <v>728</v>
+        <v>652</v>
       </c>
       <c r="L128">
-        <v>32.64178113554561</v>
+        <v>31.73192740287362</v>
       </c>
       <c r="M128">
-        <v>9.194315071358066</v>
+        <v>8.735835396854673</v>
       </c>
       <c r="N128">
-        <v>0.2739606114127321</v>
+        <v>0.2810275947471794</v>
       </c>
       <c r="O128">
-        <v>0.2272366844266813</v>
+        <v>0.2070986292371534</v>
       </c>
       <c r="P128">
-        <v>0.165422300706704</v>
+        <v>0.1691627324864609</v>
       </c>
       <c r="Q128">
-        <v>0.1298544230824231</v>
+        <v>0.1387740593108485</v>
       </c>
       <c r="R128">
-        <v>0.1246545330091659</v>
+        <v>0.1267512781656147</v>
       </c>
       <c r="S128">
-        <v>0.07887144736210082</v>
+        <v>0.07718570605257455</v>
       </c>
       <c r="T128">
-        <v>643</v>
+        <v>570</v>
       </c>
       <c r="U128">
-        <v>35.28737687144028</v>
+        <v>34.48207601023877</v>
       </c>
       <c r="V128">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="W128">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="X128" t="inlineStr">
         <is>
@@ -11169,61 +11169,61 @@
         </is>
       </c>
       <c r="E129">
-        <v>103.8350611120865</v>
+        <v>103.9743798724123</v>
       </c>
       <c r="F129">
-        <v>6484</v>
+        <v>6029</v>
       </c>
       <c r="G129">
-        <v>148</v>
+        <v>42</v>
       </c>
       <c r="H129">
-        <v>1686</v>
+        <v>1523</v>
       </c>
       <c r="I129">
-        <v>19.89091538158001</v>
+        <v>18.89237251040367</v>
       </c>
       <c r="J129">
-        <v>6.059209819365229</v>
+        <v>5.663280223712333</v>
       </c>
       <c r="K129">
-        <v>1357</v>
+        <v>1236</v>
       </c>
       <c r="L129">
-        <v>32.27170228444473</v>
+        <v>31.14781553397395</v>
       </c>
       <c r="M129">
-        <v>7.951761072778495</v>
+        <v>7.582885851032967</v>
       </c>
       <c r="N129">
-        <v>0.2628910981129285</v>
+        <v>0.2608898760565946</v>
       </c>
       <c r="O129">
-        <v>0.2251448955525033</v>
+        <v>0.228422294982233</v>
       </c>
       <c r="P129">
-        <v>0.2312785354030037</v>
+        <v>0.230261574332661</v>
       </c>
       <c r="Q129">
-        <v>0.1235197347854591</v>
+        <v>0.1233748220905081</v>
       </c>
       <c r="R129">
-        <v>0.08192971512506787</v>
+        <v>0.08097650223142912</v>
       </c>
       <c r="S129">
-        <v>0.07523602102070995</v>
+        <v>0.07607493030617533</v>
       </c>
       <c r="T129">
-        <v>1022</v>
+        <v>931</v>
       </c>
       <c r="U129">
-        <v>38.50355511334168</v>
+        <v>37.01786608607433</v>
       </c>
       <c r="V129">
-        <v>405</v>
+        <v>355</v>
       </c>
       <c r="W129">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="X129" t="inlineStr">
         <is>
@@ -11253,61 +11253,61 @@
         </is>
       </c>
       <c r="E130">
-        <v>102.6969501581153</v>
+        <v>102.8569956096919</v>
       </c>
       <c r="F130">
-        <v>6184</v>
+        <v>5745</v>
       </c>
       <c r="G130">
-        <v>133</v>
+        <v>33</v>
       </c>
       <c r="H130">
-        <v>576</v>
+        <v>525</v>
       </c>
       <c r="I130">
-        <v>21.65083912037709</v>
+        <v>21.14263492064</v>
       </c>
       <c r="J130">
-        <v>2.385553686730802</v>
+        <v>2.300307049389911</v>
       </c>
       <c r="K130">
-        <v>1045</v>
+        <v>965</v>
       </c>
       <c r="L130">
-        <v>28.21968102073636</v>
+        <v>27.54359240069378</v>
       </c>
       <c r="M130">
-        <v>6.953594552235732</v>
+        <v>6.808011960143955</v>
       </c>
       <c r="N130">
-        <v>0.2501020442110957</v>
+        <v>0.2520448734375492</v>
       </c>
       <c r="O130">
-        <v>0.2166717250174938</v>
+        <v>0.2092110044662394</v>
       </c>
       <c r="P130">
-        <v>0.187883471412768</v>
+        <v>0.1968271788874016</v>
       </c>
       <c r="Q130">
-        <v>0.1452869304397331</v>
+        <v>0.1529100265729089</v>
       </c>
       <c r="R130">
-        <v>0.1351921456452562</v>
+        <v>0.1309248278403448</v>
       </c>
       <c r="S130">
-        <v>0.06486368327386986</v>
+        <v>0.0580820887956829</v>
       </c>
       <c r="T130">
-        <v>659</v>
+        <v>612</v>
       </c>
       <c r="U130">
-        <v>37.19342438842064</v>
+        <v>35.97788671857712</v>
       </c>
       <c r="V130">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="W130">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="X130" t="inlineStr">
         <is>
@@ -11337,61 +11337,61 @@
         </is>
       </c>
       <c r="E131">
-        <v>184.2839465296986</v>
+        <v>184.3646070928564</v>
       </c>
       <c r="F131">
-        <v>5445</v>
+        <v>5055</v>
       </c>
       <c r="G131">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="H131">
-        <v>293</v>
+        <v>240</v>
       </c>
       <c r="I131">
-        <v>18.670307167243</v>
+        <v>18.43916666667042</v>
       </c>
       <c r="J131">
-        <v>1.139278682996205</v>
+        <v>1.003436682277811</v>
       </c>
       <c r="K131">
-        <v>435</v>
+        <v>392</v>
       </c>
       <c r="L131">
-        <v>37.61329501916413</v>
+        <v>35.85403911565383</v>
       </c>
       <c r="M131">
-        <v>4.346792854296958</v>
+        <v>4.093627515656784</v>
       </c>
       <c r="N131">
-        <v>0.4100337316777586</v>
+        <v>0.4027767418460587</v>
       </c>
       <c r="O131">
-        <v>0.2006702406722896</v>
+        <v>0.186117911630426</v>
       </c>
       <c r="P131">
-        <v>0.06595425733430897</v>
+        <v>0.06796551758369235</v>
       </c>
       <c r="Q131">
-        <v>0.1707406533105844</v>
+        <v>0.1868580986385094</v>
       </c>
       <c r="R131">
-        <v>0.1023208410999379</v>
+        <v>0.1004860159678801</v>
       </c>
       <c r="S131">
-        <v>0.05028027590502344</v>
+        <v>0.05579571433338061</v>
       </c>
       <c r="T131">
-        <v>369</v>
+        <v>328</v>
       </c>
       <c r="U131">
-        <v>42.09855465302899</v>
+        <v>40.40660569715762</v>
       </c>
       <c r="V131">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="W131">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="X131" t="inlineStr">
         <is>
@@ -11421,61 +11421,61 @@
         </is>
       </c>
       <c r="E132">
-        <v>162.4477151201784</v>
+        <v>162.5659597074078</v>
       </c>
       <c r="F132">
-        <v>5683</v>
+        <v>5236</v>
       </c>
       <c r="G132">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="H132">
-        <v>292</v>
+        <v>231</v>
       </c>
       <c r="I132">
-        <v>18.22254566209384</v>
+        <v>18.1601010101039</v>
       </c>
       <c r="J132">
-        <v>1.05707769731116</v>
+        <v>0.9145096550457436</v>
       </c>
       <c r="K132">
-        <v>494</v>
+        <v>436</v>
       </c>
       <c r="L132">
-        <v>33.77047908232794</v>
+        <v>31.32710244648854</v>
       </c>
       <c r="M132">
-        <v>3.502560917943358</v>
+        <v>3.182974350013402</v>
       </c>
       <c r="N132">
-        <v>0.4248447303885223</v>
+        <v>0.4276830000917202</v>
       </c>
       <c r="O132">
-        <v>0.211289128835919</v>
+        <v>0.1833848096636743</v>
       </c>
       <c r="P132">
-        <v>0.08322214145926822</v>
+        <v>0.09195916059915298</v>
       </c>
       <c r="Q132">
-        <v>0.1671097803203257</v>
+        <v>0.1776708994954039</v>
       </c>
       <c r="R132">
-        <v>0.0729286453172496</v>
+        <v>0.0756287137792938</v>
       </c>
       <c r="S132">
-        <v>0.04060557367862814</v>
+        <v>0.04367341637062959</v>
       </c>
       <c r="T132">
-        <v>336</v>
+        <v>290</v>
       </c>
       <c r="U132">
-        <v>43.61716270704286</v>
+        <v>40.65643679091862</v>
       </c>
       <c r="V132">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="W132">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="X132" t="inlineStr">
         <is>
@@ -11505,61 +11505,61 @@
         </is>
       </c>
       <c r="E133">
-        <v>162.9041184196442</v>
+        <v>162.968008554433</v>
       </c>
       <c r="F133">
-        <v>2752</v>
+        <v>2559</v>
       </c>
       <c r="G133">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="H133">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="I133">
-        <v>12.86447963802172</v>
+        <v>12.88690176323451</v>
       </c>
       <c r="J133">
-        <v>3.186388598326904</v>
+        <v>3.096889965844229</v>
       </c>
       <c r="K133">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="L133">
-        <v>31.35075231480938</v>
+        <v>29.88589238843976</v>
       </c>
       <c r="M133">
-        <v>2.625331444000352</v>
+        <v>2.304772228952598</v>
       </c>
       <c r="N133">
-        <v>0.2603755918217979</v>
+        <v>0.2637329545066134</v>
       </c>
       <c r="O133">
-        <v>0.3116200090835698</v>
+        <v>0.2942778055751028</v>
       </c>
       <c r="P133">
-        <v>0.2464350905623958</v>
+        <v>0.2479264018975275</v>
       </c>
       <c r="Q133">
-        <v>0.1063167519991389</v>
+        <v>0.116611120376974</v>
       </c>
       <c r="R133">
-        <v>0.03589016715525278</v>
+        <v>0.0367573548846937</v>
       </c>
       <c r="S133">
-        <v>0.0393623893774559</v>
+        <v>0.0406943627586878</v>
       </c>
       <c r="T133">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="U133">
-        <v>38.22476190238286</v>
+        <v>36.89000000278</v>
       </c>
       <c r="V133">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="W133">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="X133" t="inlineStr">
         <is>
@@ -11589,61 +11589,61 @@
         </is>
       </c>
       <c r="E134">
-        <v>131.0834777507617</v>
+        <v>131.1128276583683</v>
       </c>
       <c r="F134">
-        <v>2317</v>
+        <v>2153</v>
       </c>
       <c r="G134">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="H134">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="I134">
-        <v>16.6408333333331</v>
+        <v>15.75711382113061</v>
       </c>
       <c r="J134">
-        <v>1.032162573915194</v>
+        <v>0.9087416088070345</v>
       </c>
       <c r="K134">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="L134">
-        <v>28.98950131232756</v>
+        <v>29.25151515149909</v>
       </c>
       <c r="M134">
-        <v>0.8424513720592322</v>
+        <v>0.7422014997958946</v>
       </c>
       <c r="N134">
-        <v>0.2929133858267008</v>
+        <v>0.3018181818181091</v>
       </c>
       <c r="O134">
-        <v>0.2510686164228189</v>
+        <v>0.2535064935063545</v>
       </c>
       <c r="P134">
-        <v>0.1698537682789189</v>
+        <v>0.1688311688311609</v>
       </c>
       <c r="Q134">
-        <v>0.2102362204724488</v>
+        <v>0.1881818181817636</v>
       </c>
       <c r="R134">
-        <v>0.04364454443194016</v>
+        <v>0.05038961038960364</v>
       </c>
       <c r="S134">
-        <v>0.03228346456693464</v>
+        <v>0.03727272727273363</v>
       </c>
       <c r="T134">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="U134">
-        <v>37.02764705882353</v>
+        <v>37.26148647972973</v>
       </c>
       <c r="V134">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="W134">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X134" t="inlineStr">
         <is>
@@ -11673,61 +11673,61 @@
         </is>
       </c>
       <c r="E135">
-        <v>97.89694708861433</v>
+        <v>97.90347481209278</v>
       </c>
       <c r="F135">
-        <v>5087</v>
+        <v>4711</v>
       </c>
       <c r="G135">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="H135">
-        <v>891</v>
+        <v>795</v>
       </c>
       <c r="I135">
-        <v>15.43843995509315</v>
+        <v>15.60207547168704</v>
       </c>
       <c r="J135">
-        <v>3.677080166493464</v>
+        <v>3.592508343653595</v>
       </c>
       <c r="K135">
-        <v>367</v>
+        <v>329</v>
       </c>
       <c r="L135">
-        <v>32.19827429609236</v>
+        <v>31.89290780141125</v>
       </c>
       <c r="M135">
-        <v>1.538823621748709</v>
+        <v>1.40776815194982</v>
       </c>
       <c r="N135">
-        <v>0.2479359595720338</v>
+        <v>0.2552963439602687</v>
       </c>
       <c r="O135">
-        <v>0.2599741400158556</v>
+        <v>0.2535273841514498</v>
       </c>
       <c r="P135">
-        <v>0.2754021812767139</v>
+        <v>0.2707373876248085</v>
       </c>
       <c r="Q135">
-        <v>0.1291021922972093</v>
+        <v>0.1257766096446195</v>
       </c>
       <c r="R135">
-        <v>0.03142726778107139</v>
+        <v>0.03505716497159027</v>
       </c>
       <c r="S135">
-        <v>0.05615825905693216</v>
+        <v>0.05960510964709271</v>
       </c>
       <c r="T135">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="U135">
-        <v>41.94755102448939</v>
+        <v>41.31289592850633</v>
       </c>
       <c r="V135">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="W135">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="X135" t="inlineStr">
         <is>
@@ -11757,61 +11757,61 @@
         </is>
       </c>
       <c r="E136">
-        <v>183.0810217196068</v>
+        <v>183.1298115790385</v>
       </c>
       <c r="F136">
-        <v>2658</v>
+        <v>2464</v>
       </c>
       <c r="G136">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="H136">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="I136">
-        <v>15.55882352941597</v>
+        <v>15.24019607843529</v>
       </c>
       <c r="J136">
-        <v>0.8735770802947611</v>
+        <v>0.800717483532644</v>
       </c>
       <c r="K136">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="L136">
-        <v>34.46944444443925</v>
+        <v>33.91656504064573</v>
       </c>
       <c r="M136">
-        <v>1.597373402663053</v>
+        <v>1.426062704658335</v>
       </c>
       <c r="N136">
-        <v>0.3533004778971344</v>
+        <v>0.3495910762678232</v>
       </c>
       <c r="O136">
-        <v>0.3466931216930537</v>
+        <v>0.3548732094463414</v>
       </c>
       <c r="P136">
-        <v>0.1268881208396769</v>
+        <v>0.1311338559813518</v>
       </c>
       <c r="Q136">
-        <v>0.1127517494452366</v>
+        <v>0.1023253000386707</v>
       </c>
       <c r="R136">
-        <v>0.04398148148146452</v>
+        <v>0.04988143631434391</v>
       </c>
       <c r="S136">
-        <v>0.01638504864310484</v>
+        <v>0.01219512195121646</v>
       </c>
       <c r="T136">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="U136">
-        <v>36.5533530548355</v>
+        <v>36.2484126943347</v>
       </c>
       <c r="V136">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="W136">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="X136" t="inlineStr">
         <is>
@@ -11841,61 +11841,61 @@
         </is>
       </c>
       <c r="E137">
-        <v>338.8677698136514</v>
+        <v>338.9439057225536</v>
       </c>
       <c r="F137">
-        <v>2444</v>
+        <v>2276</v>
       </c>
       <c r="G137">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="H137">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="I137">
-        <v>17.50129629629</v>
+        <v>16.721911421907</v>
       </c>
       <c r="J137">
-        <v>1.487573210210554</v>
+        <v>1.243246452440437</v>
       </c>
       <c r="K137">
-        <v>384</v>
+        <v>347</v>
       </c>
       <c r="L137">
-        <v>43.3060763888849</v>
+        <v>42.82574447646167</v>
       </c>
       <c r="M137">
-        <v>9.279640324232028</v>
+        <v>8.976467905282901</v>
       </c>
       <c r="N137">
-        <v>0.3895986799092969</v>
+        <v>0.3994406140783314</v>
       </c>
       <c r="O137">
-        <v>0.2175566017834948</v>
+        <v>0.1946447696970547</v>
       </c>
       <c r="P137">
-        <v>0.1280254135496997</v>
+        <v>0.1330310051962075</v>
       </c>
       <c r="Q137">
-        <v>0.1281475684941669</v>
+        <v>0.1302843409272741</v>
       </c>
       <c r="R137">
-        <v>0.09109834447032578</v>
+        <v>0.09504831203632104</v>
       </c>
       <c r="S137">
-        <v>0.04557339179283932</v>
+        <v>0.04755095806470116</v>
       </c>
       <c r="T137">
-        <v>384</v>
+        <v>347</v>
       </c>
       <c r="U137">
-        <v>43.30607639201146</v>
+        <v>42.82574448107319</v>
       </c>
       <c r="V137">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="W137">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="X137" t="inlineStr">
         <is>
@@ -11925,61 +11925,61 @@
         </is>
       </c>
       <c r="E138">
-        <v>176.9645248181743</v>
+        <v>177.1079010745684</v>
       </c>
       <c r="F138">
-        <v>3925</v>
+        <v>3640</v>
       </c>
       <c r="G138">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="H138">
-        <v>886</v>
+        <v>800</v>
       </c>
       <c r="I138">
-        <v>23.95891647854786</v>
+        <v>22.528249999988</v>
       </c>
       <c r="J138">
-        <v>6.153410205503055</v>
+        <v>5.711300839725135</v>
       </c>
       <c r="K138">
-        <v>665</v>
+        <v>589</v>
       </c>
       <c r="L138">
-        <v>39.72288220551503</v>
+        <v>37.90614035088473</v>
       </c>
       <c r="M138">
-        <v>6.088156083585669</v>
+        <v>5.49121226045625</v>
       </c>
       <c r="N138">
-        <v>0.3782122999556722</v>
+        <v>0.3874439945735654</v>
       </c>
       <c r="O138">
-        <v>0.276368204984794</v>
+        <v>0.2432114142301867</v>
       </c>
       <c r="P138">
-        <v>0.1533007243044836</v>
+        <v>0.1679201726018363</v>
       </c>
       <c r="Q138">
-        <v>0.1187093857720726</v>
+        <v>0.1254245753340562</v>
       </c>
       <c r="R138">
-        <v>0.03737664488716195</v>
+        <v>0.04047900766830543</v>
       </c>
       <c r="S138">
-        <v>0.03603274009552977</v>
+        <v>0.03552083559172717</v>
       </c>
       <c r="T138">
-        <v>547</v>
+        <v>478</v>
       </c>
       <c r="U138">
-        <v>45.4893357677629</v>
+        <v>43.68967922105921</v>
       </c>
       <c r="V138">
-        <v>274</v>
+        <v>231</v>
       </c>
       <c r="W138">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="X138" t="inlineStr">
         <is>
@@ -12009,61 +12009,61 @@
         </is>
       </c>
       <c r="E139">
-        <v>169.4483492211528</v>
+        <v>169.4570766495298</v>
       </c>
       <c r="F139">
-        <v>1237</v>
+        <v>1174</v>
       </c>
       <c r="G139">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="H139">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I139">
-        <v>21.10432098765741</v>
+        <v>21.52222222222549</v>
       </c>
       <c r="J139">
-        <v>1.06679459010397</v>
+        <v>1.072934333865935</v>
       </c>
       <c r="K139">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="L139">
-        <v>24.63502824858757</v>
+        <v>23.23703703704012</v>
       </c>
       <c r="M139">
-        <v>5.775376021642805</v>
+        <v>5.474565705936244</v>
       </c>
       <c r="N139">
-        <v>0.2436210211633277</v>
+        <v>0.2353143255920617</v>
       </c>
       <c r="O139">
-        <v>0.1871238460220678</v>
+        <v>0.1921044490488333</v>
       </c>
       <c r="P139">
-        <v>0.2796017541779661</v>
+        <v>0.2746266079599074</v>
       </c>
       <c r="Q139">
-        <v>0.119164263232022</v>
+        <v>0.1301979913090611</v>
       </c>
       <c r="R139">
-        <v>0.1403507039100701</v>
+        <v>0.1348276209387803</v>
       </c>
       <c r="S139">
-        <v>0.03013841149437345</v>
+        <v>0.03292900515125988</v>
       </c>
       <c r="T139">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="U139">
-        <v>33.07804486795384</v>
+        <v>30.74859648386526</v>
       </c>
       <c r="V139">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="W139">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="X139" t="inlineStr">
         <is>
@@ -12093,61 +12093,61 @@
         </is>
       </c>
       <c r="E140">
-        <v>168.7321729360231</v>
+        <v>168.6507460385496</v>
       </c>
       <c r="F140">
-        <v>1214</v>
+        <v>1150</v>
       </c>
       <c r="G140">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H140">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I140">
-        <v>14.52666666666429</v>
+        <v>15.33655913978226</v>
       </c>
       <c r="J140">
-        <v>0.574330106213182</v>
+        <v>0.5532493469067853</v>
       </c>
       <c r="K140">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="L140">
-        <v>22.00801282051026</v>
+        <v>21.33732876712055</v>
       </c>
       <c r="M140">
-        <v>3.46740086882776</v>
+        <v>3.268195351962522</v>
       </c>
       <c r="N140">
-        <v>0.2051282051280833</v>
+        <v>0.2054794520546644</v>
       </c>
       <c r="O140">
-        <v>0.2543123543123404</v>
+        <v>0.2580323785803089</v>
       </c>
       <c r="P140">
-        <v>0.2065268065267218</v>
+        <v>0.2069738480696479</v>
       </c>
       <c r="Q140">
-        <v>0.1008158508158635</v>
+        <v>0.1008717310087308</v>
       </c>
       <c r="R140">
-        <v>0.1755244755244628</v>
+        <v>0.1738480697384671</v>
       </c>
       <c r="S140">
-        <v>0.0576923076923141</v>
+        <v>0.05479452054795206</v>
       </c>
       <c r="T140">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="U140">
-        <v>29.45795454090909</v>
+        <v>28.41829267560976</v>
       </c>
       <c r="V140">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W140">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X140" t="inlineStr">
         <is>
@@ -12177,61 +12177,61 @@
         </is>
       </c>
       <c r="E141">
-        <v>237.253966165541</v>
+        <v>237.3937435204475</v>
       </c>
       <c r="F141">
-        <v>3268</v>
+        <v>3059</v>
       </c>
       <c r="G141">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="H141">
-        <v>855</v>
+        <v>793</v>
       </c>
       <c r="I141">
-        <v>17.63929824561205</v>
+        <v>17.81538461538197</v>
       </c>
       <c r="J141">
-        <v>5.442408090975658</v>
+        <v>5.433406224683746</v>
       </c>
       <c r="K141">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="L141">
-        <v>46.1561071709974</v>
+        <v>44.46573367260025</v>
       </c>
       <c r="M141">
-        <v>5.962789245927054</v>
+        <v>5.695127576230641</v>
       </c>
       <c r="N141">
-        <v>0.41326671321861</v>
+        <v>0.4168239686805649</v>
       </c>
       <c r="O141">
-        <v>0.200625658882843</v>
+        <v>0.1879507727924493</v>
       </c>
       <c r="P141">
-        <v>0.131106095352347</v>
+        <v>0.13602513571003</v>
       </c>
       <c r="Q141">
-        <v>0.1377697405211007</v>
+        <v>0.1431974560825053</v>
       </c>
       <c r="R141">
-        <v>0.07103481786787423</v>
+        <v>0.06882373526236846</v>
       </c>
       <c r="S141">
-        <v>0.04619697415714066</v>
+        <v>0.04717893147193766</v>
       </c>
       <c r="T141">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="U141">
-        <v>46.15610718423664</v>
+        <v>44.46573368685012</v>
       </c>
       <c r="V141">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="W141">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="X141" t="inlineStr">
         <is>
@@ -12261,61 +12261,61 @@
         </is>
       </c>
       <c r="E142">
-        <v>209.000348771751</v>
+        <v>208.9854915539073</v>
       </c>
       <c r="F142">
-        <v>7299</v>
+        <v>6786</v>
       </c>
       <c r="G142">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="H142">
-        <v>467</v>
+        <v>416</v>
       </c>
       <c r="I142">
-        <v>22.43465381872398</v>
+        <v>22.86534455130192</v>
       </c>
       <c r="J142">
-        <v>1.610690277268506</v>
+        <v>1.570649621836775</v>
       </c>
       <c r="K142">
-        <v>1040</v>
+        <v>929</v>
       </c>
       <c r="L142">
-        <v>37.97729166665702</v>
+        <v>38.86155364189526</v>
       </c>
       <c r="M142">
-        <v>8.375989361495384</v>
+        <v>8.234356962796493</v>
       </c>
       <c r="N142">
-        <v>0.2272808050111029</v>
+        <v>0.2296792650286006</v>
       </c>
       <c r="O142">
-        <v>0.4526414602535115</v>
+        <v>0.4421389867207761</v>
       </c>
       <c r="P142">
-        <v>0.129310999154146</v>
+        <v>0.1339972434018414</v>
       </c>
       <c r="Q142">
-        <v>0.08075131528987058</v>
+        <v>0.08717047136864198</v>
       </c>
       <c r="R142">
-        <v>0.08158243681322384</v>
+        <v>0.08379519298788882</v>
       </c>
       <c r="S142">
-        <v>0.02843298347835317</v>
+        <v>0.02321884049244801</v>
       </c>
       <c r="T142">
-        <v>965</v>
+        <v>854</v>
       </c>
       <c r="U142">
-        <v>39.99734025536995</v>
+        <v>41.22181890378454</v>
       </c>
       <c r="V142">
-        <v>387</v>
+        <v>352</v>
       </c>
       <c r="W142">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="X142" t="inlineStr">
         <is>
@@ -12345,61 +12345,61 @@
         </is>
       </c>
       <c r="E143">
-        <v>60.32242121486045</v>
+        <v>59.94807126598129</v>
       </c>
       <c r="F143">
-        <v>5342</v>
+        <v>4913</v>
       </c>
       <c r="G143">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="H143">
-        <v>754</v>
+        <v>690</v>
       </c>
       <c r="I143">
-        <v>20.65979221927931</v>
+        <v>20.53693236715449</v>
       </c>
       <c r="J143">
-        <v>3.615945094126563</v>
+        <v>3.592383206355481</v>
       </c>
       <c r="K143">
-        <v>924</v>
+        <v>863</v>
       </c>
       <c r="L143">
-        <v>22.68297258298701</v>
+        <v>22.46473541909467</v>
       </c>
       <c r="M143">
-        <v>4.072631791243643</v>
+        <v>4.124160193124865</v>
       </c>
       <c r="N143">
-        <v>0.2460266221205238</v>
+        <v>0.2390829650514044</v>
       </c>
       <c r="O143">
-        <v>0.4065240466739903</v>
+        <v>0.4028136953959954</v>
       </c>
       <c r="P143">
-        <v>0.1159134231080918</v>
+        <v>0.1159953684262524</v>
       </c>
       <c r="Q143">
-        <v>0.103425166101272</v>
+        <v>0.1072593898928997</v>
       </c>
       <c r="R143">
-        <v>0.08473959856941093</v>
+        <v>0.08841180657953164</v>
       </c>
       <c r="S143">
-        <v>0.04337114342656354</v>
+        <v>0.04643677465370186</v>
       </c>
       <c r="T143">
-        <v>371</v>
+        <v>340</v>
       </c>
       <c r="U143">
-        <v>42.82915543279623</v>
+        <v>42.92240195872765</v>
       </c>
       <c r="V143">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="W143">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="X143" t="inlineStr">
         <is>
@@ -12429,61 +12429,61 @@
         </is>
       </c>
       <c r="E144">
-        <v>137.4914859632021</v>
+        <v>137.2560588631979</v>
       </c>
       <c r="F144">
-        <v>5998</v>
+        <v>5518</v>
       </c>
       <c r="G144">
-        <v>123</v>
+        <v>51</v>
       </c>
       <c r="H144">
-        <v>327</v>
+        <v>281</v>
       </c>
       <c r="I144">
-        <v>20.26962283386269</v>
+        <v>19.42763938317189</v>
       </c>
       <c r="J144">
-        <v>1.293264096299087</v>
+        <v>1.177600226458921</v>
       </c>
       <c r="K144">
-        <v>656</v>
+        <v>559</v>
       </c>
       <c r="L144">
-        <v>34.76092479674345</v>
+        <v>35.81961836613041</v>
       </c>
       <c r="M144">
-        <v>4.684308828291591</v>
+        <v>4.412012387113911</v>
       </c>
       <c r="N144">
-        <v>0.3210270225400393</v>
+        <v>0.3387745559682751</v>
       </c>
       <c r="O144">
-        <v>0.3441489830825427</v>
+        <v>0.3026447219478479</v>
       </c>
       <c r="P144">
-        <v>0.07188161216444817</v>
+        <v>0.07712463490734901</v>
       </c>
       <c r="Q144">
-        <v>0.1125160042355587</v>
+        <v>0.1211949888703515</v>
       </c>
       <c r="R144">
-        <v>0.1356823960353407</v>
+        <v>0.1501888523539417</v>
       </c>
       <c r="S144">
-        <v>0.0147439819423782</v>
+        <v>0.01007224595264794</v>
       </c>
       <c r="T144">
-        <v>481</v>
+        <v>421</v>
       </c>
       <c r="U144">
-        <v>42.45166319251351</v>
+        <v>43.026722075057</v>
       </c>
       <c r="V144">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="W144">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="X144" t="inlineStr">
         <is>
@@ -12513,61 +12513,61 @@
         </is>
       </c>
       <c r="E145">
-        <v>76.76681600633869</v>
+        <v>76.66102286634714</v>
       </c>
       <c r="F145">
-        <v>2171</v>
+        <v>1992</v>
       </c>
       <c r="G145">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H145">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="I145">
-        <v>24.73009259258797</v>
+        <v>23.87343749999896</v>
       </c>
       <c r="J145">
-        <v>1.429115187080317</v>
+        <v>1.345687284714663</v>
       </c>
       <c r="K145">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="L145">
-        <v>18.37771203153432</v>
+        <v>17.55767195764444</v>
       </c>
       <c r="M145">
-        <v>3.300394554326462</v>
+        <v>3.214938040885336</v>
       </c>
       <c r="N145">
-        <v>0.1690898802789944</v>
+        <v>0.165563109632686</v>
       </c>
       <c r="O145">
-        <v>0.3163108074910266</v>
+        <v>0.291787469625327</v>
       </c>
       <c r="P145">
-        <v>0.1420730780656606</v>
+        <v>0.1524466678926771</v>
       </c>
       <c r="Q145">
-        <v>0.1741668900772772</v>
+        <v>0.1805346312575251</v>
       </c>
       <c r="R145">
-        <v>0.1731654491454595</v>
+        <v>0.1826346724163952</v>
       </c>
       <c r="S145">
-        <v>0.02519389494119201</v>
+        <v>0.02703344917499333</v>
       </c>
       <c r="T145">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="U145">
-        <v>40.38529411372549</v>
+        <v>38.8934065923077</v>
       </c>
       <c r="V145">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="W145">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="X145" t="inlineStr">
         <is>
@@ -12597,61 +12597,61 @@
         </is>
       </c>
       <c r="E146">
-        <v>77.99417040368675</v>
+        <v>77.67595926062143</v>
       </c>
       <c r="F146">
-        <v>2310</v>
+        <v>2120</v>
       </c>
       <c r="G146">
         <v>14</v>
       </c>
       <c r="H146">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I146">
-        <v>19.99677419354839</v>
+        <v>19.80350877192982</v>
       </c>
       <c r="J146">
-        <v>0.6298564194375667</v>
+        <v>0.6216831740097967</v>
       </c>
       <c r="K146">
-        <v>411</v>
+        <v>383</v>
       </c>
       <c r="L146">
-        <v>17.53479318735815</v>
+        <v>17.60783289818433</v>
       </c>
       <c r="M146">
-        <v>3.654068602053143</v>
+        <v>3.728253995633708</v>
       </c>
       <c r="N146">
-        <v>0.1377839027481618</v>
+        <v>0.1321910810169361</v>
       </c>
       <c r="O146">
-        <v>0.4457335182310219</v>
+        <v>0.4417662558562663</v>
       </c>
       <c r="P146">
-        <v>0.1676651424372307</v>
+        <v>0.1773116802655389</v>
       </c>
       <c r="Q146">
-        <v>0.09236479481976059</v>
+        <v>0.09911731245671437</v>
       </c>
       <c r="R146">
-        <v>0.07710918467888661</v>
+        <v>0.0801354436110235</v>
       </c>
       <c r="S146">
-        <v>0.07934345708472068</v>
+        <v>0.06947822679324335</v>
       </c>
       <c r="T146">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="U146">
-        <v>39.70370370797863</v>
+        <v>39.64848485121364</v>
       </c>
       <c r="V146">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="W146">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X146" t="inlineStr">
         <is>
@@ -12681,61 +12681,61 @@
         </is>
       </c>
       <c r="E147">
-        <v>65.32532794122108</v>
+        <v>65.01634552110885</v>
       </c>
       <c r="F147">
-        <v>6644</v>
+        <v>6086</v>
       </c>
       <c r="G147">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="H147">
-        <v>373</v>
+        <v>303</v>
       </c>
       <c r="I147">
-        <v>22.60406613047641</v>
+        <v>22.92183718371518</v>
       </c>
       <c r="J147">
-        <v>1.523157913621905</v>
+        <v>1.386273607969579</v>
       </c>
       <c r="K147">
-        <v>517</v>
+        <v>424</v>
       </c>
       <c r="L147">
-        <v>24.22253384913037</v>
+        <v>24.28549528301274</v>
       </c>
       <c r="M147">
-        <v>1.169585052891185</v>
+        <v>0.9442528904713393</v>
       </c>
       <c r="N147">
-        <v>0.2631582151600948</v>
+        <v>0.2740539260696651</v>
       </c>
       <c r="O147">
-        <v>0.1747175553440984</v>
+        <v>0.168679215445462</v>
       </c>
       <c r="P147">
-        <v>0.1137842708841853</v>
+        <v>0.09684533750780377</v>
       </c>
       <c r="Q147">
-        <v>0.1297589396398538</v>
+        <v>0.1458977657846243</v>
       </c>
       <c r="R147">
-        <v>0.2468071137495861</v>
+        <v>0.2344004591095637</v>
       </c>
       <c r="S147">
-        <v>0.07177390522185106</v>
+        <v>0.08012329608260967</v>
       </c>
       <c r="T147">
-        <v>241</v>
+        <v>196</v>
       </c>
       <c r="U147">
-        <v>40.9403181114805</v>
+        <v>41.23784013707551</v>
       </c>
       <c r="V147">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="W147">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="X147" t="inlineStr">
         <is>
@@ -12765,61 +12765,61 @@
         </is>
       </c>
       <c r="E148">
-        <v>63.41352530792474</v>
+        <v>63.40223692415216</v>
       </c>
       <c r="F148">
-        <v>6536</v>
+        <v>5991</v>
       </c>
       <c r="G148">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="H148">
-        <v>401</v>
+        <v>335</v>
       </c>
       <c r="I148">
-        <v>15.80207813799938</v>
+        <v>15.72427860697239</v>
       </c>
       <c r="J148">
-        <v>1.353161473643242</v>
+        <v>1.258097711856916</v>
       </c>
       <c r="K148">
-        <v>665</v>
+        <v>576</v>
       </c>
       <c r="L148">
-        <v>19.7993233082776</v>
+        <v>19.38984375001528</v>
       </c>
       <c r="M148">
-        <v>2.123126608280018</v>
+        <v>1.978426892291462</v>
       </c>
       <c r="N148">
-        <v>0.171751272869388</v>
+        <v>0.1700244941897413</v>
       </c>
       <c r="O148">
-        <v>0.2553401537146346</v>
+        <v>0.2646447023639792</v>
       </c>
       <c r="P148">
-        <v>0.1955363331393984</v>
+        <v>0.1842944665923557</v>
       </c>
       <c r="Q148">
-        <v>0.1410806759975576</v>
+        <v>0.1553423370203814</v>
       </c>
       <c r="R148">
-        <v>0.1864921674240908</v>
+        <v>0.181390114533268</v>
       </c>
       <c r="S148">
-        <v>0.0497993968549215</v>
+        <v>0.04430388530020191</v>
       </c>
       <c r="T148">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="U148">
-        <v>37.14641433505657</v>
+        <v>36.81485849056227</v>
       </c>
       <c r="V148">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="W148">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="X148" t="inlineStr">
         <is>
@@ -12849,61 +12849,61 @@
         </is>
       </c>
       <c r="E149">
-        <v>113.10058174128</v>
+        <v>113.2968773122211</v>
       </c>
       <c r="F149">
-        <v>3990</v>
+        <v>3740</v>
       </c>
       <c r="G149">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="H149">
-        <v>1045</v>
+        <v>950</v>
       </c>
       <c r="I149">
-        <v>18.15405103668555</v>
+        <v>17.71471929824411</v>
       </c>
       <c r="J149">
-        <v>5.732907428174499</v>
+        <v>5.488048299041778</v>
       </c>
       <c r="K149">
-        <v>820</v>
+        <v>744</v>
       </c>
       <c r="L149">
-        <v>33.84384146342</v>
+        <v>33.73245967742688</v>
       </c>
       <c r="M149">
-        <v>7.847129865684779</v>
+        <v>7.594665284513976</v>
       </c>
       <c r="N149">
-        <v>0.2753559770919891</v>
+        <v>0.2827775481317245</v>
       </c>
       <c r="O149">
-        <v>0.2275832245761402</v>
+        <v>0.2190814818962352</v>
       </c>
       <c r="P149">
-        <v>0.2440043517920061</v>
+        <v>0.2427016867687003</v>
       </c>
       <c r="Q149">
-        <v>0.111207851742395</v>
+        <v>0.1101440795503923</v>
       </c>
       <c r="R149">
-        <v>0.07751217884808231</v>
+        <v>0.07990843890768266</v>
       </c>
       <c r="S149">
-        <v>0.06433641594979</v>
+        <v>0.06538676474558629</v>
       </c>
       <c r="T149">
-        <v>572</v>
+        <v>523</v>
       </c>
       <c r="U149">
-        <v>42.83540209160437</v>
+        <v>42.43183556118107</v>
       </c>
       <c r="V149">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="W149">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="X149" t="inlineStr">
         <is>
@@ -12933,58 +12933,58 @@
         </is>
       </c>
       <c r="E150">
-        <v>318.3973843057385</v>
+        <v>315.5457589284755</v>
       </c>
       <c r="F150">
-        <v>497</v>
+        <v>448</v>
       </c>
       <c r="G150">
         <v>2</v>
       </c>
       <c r="H150">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I150">
-        <v>19.0489583333375</v>
+        <v>19.25222222222667</v>
       </c>
       <c r="J150">
-        <v>1.161167002011541</v>
+        <v>1.196651785713647</v>
       </c>
       <c r="K150">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="L150">
-        <v>42.67158469944754</v>
+        <v>44.01757575757272</v>
       </c>
       <c r="M150">
-        <v>6.966029510399295</v>
+        <v>7.033742559527812</v>
       </c>
       <c r="N150">
-        <v>0.2923497267758688</v>
+        <v>0.3060606060604727</v>
       </c>
       <c r="O150">
-        <v>0.3442622950820164</v>
+        <v>0.3090909090909272</v>
       </c>
       <c r="P150">
-        <v>0.1202185792349443</v>
+        <v>0.1333333333333018</v>
       </c>
       <c r="Q150">
-        <v>0.1721311475409836</v>
+        <v>0.1909090909090909</v>
       </c>
       <c r="R150">
-        <v>0.04918032786886885</v>
+        <v>0.03636363636361818</v>
       </c>
       <c r="S150">
-        <v>0.0218579234972459</v>
+        <v>0.0242424242424</v>
       </c>
       <c r="T150">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="U150">
-        <v>42.67158470109508</v>
+        <v>44.01757576303272</v>
       </c>
       <c r="V150">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="W150">
         <v>10</v>
@@ -13017,61 +13017,61 @@
         </is>
       </c>
       <c r="E151">
-        <v>85.99156066248958</v>
+        <v>85.99090897619534</v>
       </c>
       <c r="F151">
-        <v>3348</v>
+        <v>3108</v>
       </c>
       <c r="G151">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="H151">
-        <v>401</v>
+        <v>371</v>
       </c>
       <c r="I151">
-        <v>15.75556940980923</v>
+        <v>15.56599281221968</v>
       </c>
       <c r="J151">
-        <v>2.468744816923742</v>
+        <v>2.444130517072294</v>
       </c>
       <c r="K151">
-        <v>499</v>
+        <v>458</v>
       </c>
       <c r="L151">
-        <v>18.69365397461323</v>
+        <v>18.78413391556922</v>
       </c>
       <c r="M151">
-        <v>3.038672507634931</v>
+        <v>3.041658801660795</v>
       </c>
       <c r="N151">
-        <v>0.1367706774760112</v>
+        <v>0.135913904062259</v>
       </c>
       <c r="O151">
-        <v>0.1693465477123192</v>
+        <v>0.1539387059136535</v>
       </c>
       <c r="P151">
-        <v>0.4990456287441463</v>
+        <v>0.5066021151601485</v>
       </c>
       <c r="Q151">
-        <v>0.08757548348471803</v>
+        <v>0.0888649918316048</v>
       </c>
       <c r="R151">
-        <v>0.05614498799242144</v>
+        <v>0.05898766158999978</v>
       </c>
       <c r="S151">
-        <v>0.05111667459066252</v>
+        <v>0.05569262144266506</v>
       </c>
       <c r="T151">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="U151">
-        <v>34.37880434347663</v>
+        <v>34.46882352352765</v>
       </c>
       <c r="V151">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="W151">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="X151" t="inlineStr">
         <is>
@@ -13101,61 +13101,61 @@
         </is>
       </c>
       <c r="E152">
-        <v>130.0736741764107</v>
+        <v>128.9685485393854</v>
       </c>
       <c r="F152">
-        <v>5444</v>
+        <v>5021</v>
       </c>
       <c r="G152">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="H152">
-        <v>679</v>
+        <v>613</v>
       </c>
       <c r="I152">
-        <v>14.6448453608187</v>
+        <v>14.84151712886574</v>
       </c>
       <c r="J152">
-        <v>2.353794416566297</v>
+        <v>2.319668751998731</v>
       </c>
       <c r="K152">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="L152">
-        <v>31.34695652174674</v>
+        <v>31.99650000000375</v>
       </c>
       <c r="M152">
-        <v>2.998292869985393</v>
+        <v>2.844593982115295</v>
       </c>
       <c r="N152">
-        <v>0.2267262151981169</v>
+        <v>0.2157351474778345</v>
       </c>
       <c r="O152">
-        <v>0.2405124744063452</v>
+        <v>0.234089345567347</v>
       </c>
       <c r="P152">
-        <v>0.3082415103721022</v>
+        <v>0.3194777369279675</v>
       </c>
       <c r="Q152">
-        <v>0.1243381237202841</v>
+        <v>0.1329888422783218</v>
       </c>
       <c r="R152">
-        <v>0.07530387010805087</v>
+        <v>0.0740994506242635</v>
       </c>
       <c r="S152">
-        <v>0.02487780619493543</v>
+        <v>0.02360947712418075</v>
       </c>
       <c r="T152">
-        <v>305</v>
+        <v>268</v>
       </c>
       <c r="U152">
-        <v>40.87486338666295</v>
+        <v>41.56281094265746</v>
       </c>
       <c r="V152">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="W152">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="X152" t="inlineStr">
         <is>
@@ -13185,61 +13185,61 @@
         </is>
       </c>
       <c r="E153">
-        <v>223.5249092587377</v>
+        <v>223.6082733193329</v>
       </c>
       <c r="F153">
-        <v>1666</v>
+        <v>1547</v>
       </c>
       <c r="G153">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="H153">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="I153">
-        <v>17.86666666666087</v>
+        <v>18.27540983605902</v>
       </c>
       <c r="J153">
-        <v>0.863852854751982</v>
+        <v>0.839158924380596</v>
       </c>
       <c r="K153">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="L153">
-        <v>36.28365384615385</v>
+        <v>33.59895833333334</v>
       </c>
       <c r="M153">
-        <v>3.954315479221531</v>
+        <v>3.806651317636264</v>
       </c>
       <c r="N153">
-        <v>0.2889977810650962</v>
+        <v>0.2818309294871875</v>
       </c>
       <c r="O153">
-        <v>0.2264977810649808</v>
+        <v>0.2245392628203958</v>
       </c>
       <c r="P153">
-        <v>0.1566074950689808</v>
+        <v>0.1696581196580625</v>
       </c>
       <c r="Q153">
-        <v>0.2000369822485154</v>
+        <v>0.2062900641025583</v>
       </c>
       <c r="R153">
-        <v>0.0990138067061077</v>
+        <v>0.09684829059828333</v>
       </c>
       <c r="S153">
-        <v>0.02884615384615385</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="T153">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="U153">
-        <v>36.28365385384615</v>
+        <v>33.59895834166667</v>
       </c>
       <c r="V153">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="W153">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X153" t="inlineStr">
         <is>
@@ -13269,61 +13269,61 @@
         </is>
       </c>
       <c r="E154">
-        <v>183.6649862637486</v>
+        <v>183.900719825069</v>
       </c>
       <c r="F154">
-        <v>2255</v>
+        <v>2145</v>
       </c>
       <c r="G154">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="H154">
-        <v>571</v>
+        <v>546</v>
       </c>
       <c r="I154">
-        <v>16.56036193812627</v>
+        <v>16.44133089133718</v>
       </c>
       <c r="J154">
-        <v>5.026326256922315</v>
+        <v>5.009028302731664</v>
       </c>
       <c r="K154">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="L154">
-        <v>30.10818089431799</v>
+        <v>30.16118349621173</v>
       </c>
       <c r="M154">
-        <v>4.434360462978342</v>
+        <v>4.311180813061333</v>
       </c>
       <c r="N154">
-        <v>0.221234077219296</v>
+        <v>0.2200807079085801</v>
       </c>
       <c r="O154">
-        <v>0.2842092919916168</v>
+        <v>0.2906210025187436</v>
       </c>
       <c r="P154">
-        <v>0.2247765873407052</v>
+        <v>0.2238655395692387</v>
       </c>
       <c r="Q154">
-        <v>0.1680532240544335</v>
+        <v>0.1730340634848667</v>
       </c>
       <c r="R154">
-        <v>0.05511257035648415</v>
+        <v>0.05236782761213909</v>
       </c>
       <c r="S154">
-        <v>0.0466142490372122</v>
+        <v>0.04003085890621694</v>
       </c>
       <c r="T154">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="U154">
-        <v>34.37509504828289</v>
+        <v>34.28487902096129</v>
       </c>
       <c r="V154">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="W154">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X154" t="inlineStr">
         <is>
@@ -13353,61 +13353,61 @@
         </is>
       </c>
       <c r="E155">
-        <v>99.56140159446466</v>
+        <v>99.56761725593765</v>
       </c>
       <c r="F155">
-        <v>2334</v>
+        <v>2186</v>
       </c>
       <c r="G155">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="H155">
-        <v>878</v>
+        <v>788</v>
       </c>
       <c r="I155">
-        <v>16.11822323461788</v>
+        <v>16.09873096445876</v>
       </c>
       <c r="J155">
-        <v>7.24865638049402</v>
+        <v>6.982325705433595</v>
       </c>
       <c r="K155">
-        <v>358</v>
+        <v>328</v>
       </c>
       <c r="L155">
-        <v>27.83072625697877</v>
+        <v>27.60487804877561</v>
       </c>
       <c r="M155">
-        <v>4.331968587174529</v>
+        <v>4.104672773314378</v>
       </c>
       <c r="N155">
-        <v>0.1946928313098302</v>
+        <v>0.1942074195393878</v>
       </c>
       <c r="O155">
-        <v>0.2535508863555344</v>
+        <v>0.237107369863693</v>
       </c>
       <c r="P155">
-        <v>0.2492823273748123</v>
+        <v>0.2598874182932707</v>
       </c>
       <c r="Q155">
-        <v>0.1300201315592422</v>
+        <v>0.1358146557872186</v>
       </c>
       <c r="R155">
-        <v>0.0907289682284704</v>
+        <v>0.08988100800546463</v>
       </c>
       <c r="S155">
-        <v>0.08172485517174498</v>
+        <v>0.08310212851062104</v>
       </c>
       <c r="T155">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="U155">
-        <v>34.66131435298131</v>
+        <v>34.45840772961339</v>
       </c>
       <c r="V155">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="W155">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="X155" t="inlineStr">
         <is>
@@ -13437,61 +13437,61 @@
         </is>
       </c>
       <c r="E156">
-        <v>200.1755723529621</v>
+        <v>200.3128712668517</v>
       </c>
       <c r="F156">
-        <v>5282</v>
+        <v>4877</v>
       </c>
       <c r="G156">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="H156">
-        <v>277</v>
+        <v>225</v>
       </c>
       <c r="I156">
-        <v>19.1573405535491</v>
+        <v>18.99814814813644</v>
       </c>
       <c r="J156">
-        <v>1.119504851932263</v>
+        <v>0.9844627082026781</v>
       </c>
       <c r="K156">
-        <v>392</v>
+        <v>345</v>
       </c>
       <c r="L156">
-        <v>45.0948129251796</v>
+        <v>42.02657004831942</v>
       </c>
       <c r="M156">
-        <v>5.092727151549676</v>
+        <v>4.704077263581411</v>
       </c>
       <c r="N156">
-        <v>0.4358225154322016</v>
+        <v>0.4359641838861189</v>
       </c>
       <c r="O156">
-        <v>0.1717307084793263</v>
+        <v>0.1418177779016635</v>
       </c>
       <c r="P156">
-        <v>0.08142186648498674</v>
+        <v>0.08362943266902233</v>
       </c>
       <c r="Q156">
-        <v>0.1823077767740469</v>
+        <v>0.2041823459854806</v>
       </c>
       <c r="R156">
-        <v>0.08808522541603521</v>
+        <v>0.09120055354140204</v>
       </c>
       <c r="S156">
-        <v>0.0406319074133875</v>
+        <v>0.04320570601626754</v>
       </c>
       <c r="T156">
-        <v>380</v>
+        <v>333</v>
       </c>
       <c r="U156">
-        <v>46.11824561719079</v>
+        <v>43.08388388418168</v>
       </c>
       <c r="V156">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="W156">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="X156" t="inlineStr">
         <is>
@@ -13521,61 +13521,61 @@
         </is>
       </c>
       <c r="E157">
-        <v>269.2526430819213</v>
+        <v>269.1552311561231</v>
       </c>
       <c r="F157">
-        <v>2504</v>
+        <v>2307</v>
       </c>
       <c r="G157">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="H157">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="I157">
-        <v>18.99467871486687</v>
+        <v>18.19525462963403</v>
       </c>
       <c r="J157">
-        <v>1.435960183817242</v>
+        <v>1.311072518542893</v>
       </c>
       <c r="K157">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="L157">
-        <v>51.40528634360529</v>
+        <v>50.20100502511558</v>
       </c>
       <c r="M157">
-        <v>6.200938352912951</v>
+        <v>5.909471016772406</v>
       </c>
       <c r="N157">
-        <v>0.3882154216027692</v>
+        <v>0.3775120638382945</v>
       </c>
       <c r="O157">
-        <v>0.298387074853511</v>
+        <v>0.2850948039786483</v>
       </c>
       <c r="P157">
-        <v>0.1050240170342035</v>
+        <v>0.1147761400339889</v>
       </c>
       <c r="Q157">
-        <v>0.09019130210871762</v>
+        <v>0.09785640994310804</v>
       </c>
       <c r="R157">
-        <v>0.1135450408808996</v>
+        <v>0.1194709762812231</v>
       </c>
       <c r="S157">
-        <v>0.004637143519594713</v>
+        <v>0.005289605924361809</v>
       </c>
       <c r="T157">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="U157">
-        <v>51.40528634493303</v>
+        <v>50.20100502864221</v>
       </c>
       <c r="V157">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="W157">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="X157" t="inlineStr">
         <is>
@@ -13605,61 +13605,61 @@
         </is>
       </c>
       <c r="E158">
-        <v>196.1533986655371</v>
+        <v>195.8439359783129</v>
       </c>
       <c r="F158">
-        <v>1199</v>
+        <v>1109</v>
       </c>
       <c r="G158">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H158">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I158">
-        <v>37.3535087719421</v>
+        <v>39.03981481482778</v>
       </c>
       <c r="J158">
-        <v>0.667764804003267</v>
+        <v>0.7075293056807007</v>
       </c>
       <c r="K158">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="L158">
-        <v>42.28754578754835</v>
+        <v>41.28769841270238</v>
       </c>
       <c r="M158">
-        <v>3.698929663608691</v>
+        <v>3.649248572287575</v>
       </c>
       <c r="N158">
-        <v>0.4129956124460329</v>
+        <v>0.3997928658641191</v>
       </c>
       <c r="O158">
-        <v>0.3004608944168132</v>
+        <v>0.301689778475381</v>
       </c>
       <c r="P158">
-        <v>0.1146238377006879</v>
+        <v>0.1122710622709952</v>
       </c>
       <c r="Q158">
-        <v>0.1078170913335385</v>
+        <v>0.1168018489446667</v>
       </c>
       <c r="R158">
-        <v>0.0641025641025989</v>
+        <v>0.06944444444448214</v>
       </c>
       <c r="S158">
         <v>0</v>
       </c>
       <c r="T158">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="U158">
-        <v>43.1785440750977</v>
+        <v>42.20666668041875</v>
       </c>
       <c r="V158">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="W158">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X158" t="inlineStr">
         <is>
@@ -13689,61 +13689,61 @@
         </is>
       </c>
       <c r="E159">
-        <v>338.9149338476522</v>
+        <v>338.5718934617206</v>
       </c>
       <c r="F159">
-        <v>2021</v>
+        <v>1865</v>
       </c>
       <c r="G159">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="H159">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I159">
-        <v>16.94186046512326</v>
+        <v>17.22077922078182</v>
       </c>
       <c r="J159">
-        <v>0.8422463745746062</v>
+        <v>0.8295870900886</v>
       </c>
       <c r="K159">
-        <v>393</v>
+        <v>363</v>
       </c>
       <c r="L159">
-        <v>39.50021204410509</v>
+        <v>40.05394857667576</v>
       </c>
       <c r="M159">
-        <v>9.949511706502479</v>
+        <v>10.08309016559901</v>
       </c>
       <c r="N159">
-        <v>0.2487502682114555</v>
+        <v>0.2555340369341377</v>
       </c>
       <c r="O159">
-        <v>0.4549423262240305</v>
+        <v>0.4401992677852727</v>
       </c>
       <c r="P159">
-        <v>0.1323247055325733</v>
+        <v>0.1377509897363645</v>
       </c>
       <c r="Q159">
-        <v>0.07146377628962035</v>
+        <v>0.07461505256700221</v>
       </c>
       <c r="R159">
-        <v>0.06153645968507022</v>
+        <v>0.06111247563700165</v>
       </c>
       <c r="S159">
-        <v>0.03098246405695038</v>
+        <v>0.03078817733989669</v>
       </c>
       <c r="T159">
-        <v>392</v>
+        <v>362</v>
       </c>
       <c r="U159">
-        <v>39.52699830238291</v>
+        <v>40.08448434954171</v>
       </c>
       <c r="V159">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="W159">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="X159" t="inlineStr">
         <is>
@@ -13773,61 +13773,61 @@
         </is>
       </c>
       <c r="E160">
-        <v>196.1183916603362</v>
+        <v>196.1994382020831</v>
       </c>
       <c r="F160">
-        <v>2686</v>
+        <v>2492</v>
       </c>
       <c r="G160">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="H160">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="I160">
-        <v>19.08059071729367</v>
+        <v>19.08564476885256</v>
       </c>
       <c r="J160">
-        <v>1.297679324893672</v>
+        <v>1.223341359014423</v>
       </c>
       <c r="K160">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="L160">
-        <v>44.12500000001066</v>
+        <v>43.48510638298936</v>
       </c>
       <c r="M160">
-        <v>5.964817572600108</v>
+        <v>5.582062600320181</v>
       </c>
       <c r="N160">
-        <v>0.4280800968176912</v>
+        <v>0.4167565375932425</v>
       </c>
       <c r="O160">
-        <v>0.2808064713719559</v>
+        <v>0.2550421947606127</v>
       </c>
       <c r="P160">
-        <v>0.05998469144125331</v>
+        <v>0.06942908966817404</v>
       </c>
       <c r="Q160">
-        <v>0.1130801106433735</v>
+        <v>0.1265106907115702</v>
       </c>
       <c r="R160">
-        <v>0.09903240254505075</v>
+        <v>0.1102512158062774</v>
       </c>
       <c r="S160">
-        <v>0.01901622718052868</v>
+        <v>0.02201027146001617</v>
       </c>
       <c r="T160">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="U160">
-        <v>44.9584905637717</v>
+        <v>44.43421052192763</v>
       </c>
       <c r="V160">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="W160">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="X160" t="inlineStr">
         <is>
@@ -13857,61 +13857,61 @@
         </is>
       </c>
       <c r="E161">
-        <v>120.5020866224584</v>
+        <v>120.5030187896005</v>
       </c>
       <c r="F161">
-        <v>2858</v>
+        <v>2638</v>
       </c>
       <c r="G161">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="H161">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I161">
-        <v>20.58928571429107</v>
+        <v>21.420000000002</v>
       </c>
       <c r="J161">
-        <v>0.4644628275168247</v>
+        <v>0.4660480519495773</v>
       </c>
       <c r="K161">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="L161">
-        <v>28.43706047819451</v>
+        <v>28.84489633172679</v>
       </c>
       <c r="M161">
-        <v>3.405766121889465</v>
+        <v>3.327020309461747</v>
       </c>
       <c r="N161">
-        <v>0.2258172648161924</v>
+        <v>0.2262988973168497</v>
       </c>
       <c r="O161">
-        <v>0.3141238383020042</v>
+        <v>0.3214741168340813</v>
       </c>
       <c r="P161">
-        <v>0.2318398517570051</v>
+        <v>0.2083188395168143</v>
       </c>
       <c r="Q161">
-        <v>0.1297247884578641</v>
+        <v>0.1371803865571244</v>
       </c>
       <c r="R161">
-        <v>0.07840508534490971</v>
+        <v>0.08394721621869665</v>
       </c>
       <c r="S161">
-        <v>0.02008917132170886</v>
+        <v>0.02278054355619617</v>
       </c>
       <c r="T161">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="U161">
-        <v>37.51788889021734</v>
+        <v>38.61294871948154</v>
       </c>
       <c r="V161">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="W161">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="X161" t="inlineStr">
         <is>
@@ -13941,61 +13941,61 @@
         </is>
       </c>
       <c r="E162">
-        <v>300.3413240725916</v>
+        <v>300.410612856285</v>
       </c>
       <c r="F162">
-        <v>2395</v>
+        <v>2221</v>
       </c>
       <c r="G162">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="H162">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="I162">
-        <v>14.40207253884974</v>
+        <v>14.43882352940118</v>
       </c>
       <c r="J162">
-        <v>1.731837963706645</v>
+        <v>1.672558272434397</v>
       </c>
       <c r="K162">
-        <v>456</v>
+        <v>406</v>
       </c>
       <c r="L162">
-        <v>35.32423245613114</v>
+        <v>33.4602216748665</v>
       </c>
       <c r="M162">
-        <v>9.025883384184873</v>
+        <v>8.391711258495258</v>
       </c>
       <c r="N162">
-        <v>0.2676758756093925</v>
+        <v>0.2710842346745887</v>
       </c>
       <c r="O162">
-        <v>0.1652831652638077</v>
+        <v>0.1683968555672323</v>
       </c>
       <c r="P162">
-        <v>0.2569256859698618</v>
+        <v>0.2466948591188596</v>
       </c>
       <c r="Q162">
-        <v>0.1494284403533682</v>
+        <v>0.1505895783279209</v>
       </c>
       <c r="R162">
-        <v>0.0702485981510603</v>
+        <v>0.06904768659330911</v>
       </c>
       <c r="S162">
-        <v>0.09043823465279474</v>
+        <v>0.09418678571840985</v>
       </c>
       <c r="T162">
-        <v>455</v>
+        <v>405</v>
       </c>
       <c r="U162">
-        <v>35.35791208945429</v>
+        <v>33.49345679185605</v>
       </c>
       <c r="V162">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="W162">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="X162" t="inlineStr">
         <is>
@@ -14025,61 +14025,61 @@
         </is>
       </c>
       <c r="E163">
-        <v>100.877521613768</v>
+        <v>100.9596322941231</v>
       </c>
       <c r="F163">
-        <v>1388</v>
+        <v>1251</v>
       </c>
       <c r="G163">
         <v>0</v>
       </c>
       <c r="H163">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="I163">
-        <v>21.09999999998833</v>
+        <v>21.65384615383269</v>
       </c>
       <c r="J163">
-        <v>1.092939481268291</v>
+        <v>1.08633093525242</v>
       </c>
       <c r="K163">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="L163">
-        <v>30.65517241379425</v>
+        <v>30.69333333332933</v>
       </c>
       <c r="M163">
-        <v>2.289625360231045</v>
+        <v>2.205435651479801</v>
       </c>
       <c r="N163">
-        <v>0.1182266009852069</v>
+        <v>0.09714285714284</v>
       </c>
       <c r="O163">
-        <v>0.2364532019704138</v>
+        <v>0.19428571428568</v>
       </c>
       <c r="P163">
-        <v>0.255199781061908</v>
+        <v>0.2960317460318134</v>
       </c>
       <c r="Q163">
-        <v>0.2383689107825977</v>
+        <v>0.2365079365078133</v>
       </c>
       <c r="R163">
-        <v>0.1369731800765862</v>
+        <v>0.15888888888884</v>
       </c>
       <c r="S163">
-        <v>0.01477832512313793</v>
+        <v>0.01714285714284</v>
       </c>
       <c r="T163">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="U163">
-        <v>39.48275862241379</v>
+        <v>40.08163265918368</v>
       </c>
       <c r="V163">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="W163">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X163" t="inlineStr">
         <is>
@@ -14109,61 +14109,61 @@
         </is>
       </c>
       <c r="E164">
-        <v>162.8795897276163</v>
+        <v>163.0084885212138</v>
       </c>
       <c r="F164">
-        <v>6502</v>
+        <v>6019</v>
       </c>
       <c r="G164">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="H164">
-        <v>1352</v>
+        <v>1240</v>
       </c>
       <c r="I164">
-        <v>20.0158284023821</v>
+        <v>19.65193548389145</v>
       </c>
       <c r="J164">
-        <v>5.013997196186574</v>
+        <v>4.891511840771536</v>
       </c>
       <c r="K164">
-        <v>885</v>
+        <v>808</v>
       </c>
       <c r="L164">
-        <v>35.31723163841514</v>
+        <v>33.85488861386176</v>
       </c>
       <c r="M164">
-        <v>4.327527762221478</v>
+        <v>4.05940945505312</v>
       </c>
       <c r="N164">
-        <v>0.3832441656136045</v>
+        <v>0.3905417738052983</v>
       </c>
       <c r="O164">
-        <v>0.2172216012328381</v>
+        <v>0.2048858709872558</v>
       </c>
       <c r="P164">
-        <v>0.113237191314702</v>
+        <v>0.1202164781107813</v>
       </c>
       <c r="Q164">
-        <v>0.1403204822742037</v>
+        <v>0.1422569638770672</v>
       </c>
       <c r="R164">
-        <v>0.09327287255646327</v>
+        <v>0.08945522963592697</v>
       </c>
       <c r="S164">
-        <v>0.05270368700814609</v>
+        <v>0.05264368358359553</v>
       </c>
       <c r="T164">
-        <v>628</v>
+        <v>573</v>
       </c>
       <c r="U164">
-        <v>44.53075900981688</v>
+        <v>42.49095402646597</v>
       </c>
       <c r="V164">
-        <v>308</v>
+        <v>269</v>
       </c>
       <c r="W164">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="X164" t="inlineStr">
         <is>
@@ -14193,61 +14193,61 @@
         </is>
       </c>
       <c r="E165">
-        <v>163.4463028255491</v>
+        <v>163.4801186497069</v>
       </c>
       <c r="F165">
-        <v>2238</v>
+        <v>2071</v>
       </c>
       <c r="G165">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="H165">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="I165">
-        <v>20.09677419356021</v>
+        <v>18.92405063292279</v>
       </c>
       <c r="J165">
-        <v>0.9697311388880254</v>
+        <v>0.851404292048238</v>
       </c>
       <c r="K165">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="L165">
-        <v>27.98232323232424</v>
+        <v>25.06426202322339</v>
       </c>
       <c r="M165">
-        <v>4.306556556590751</v>
+        <v>3.845037939953404</v>
       </c>
       <c r="N165">
-        <v>0.3188672438672425</v>
+        <v>0.3067578772802637</v>
       </c>
       <c r="O165">
-        <v>0.2535117407845152</v>
+        <v>0.2376179707523532</v>
       </c>
       <c r="P165">
-        <v>0.1427535091171788</v>
+        <v>0.1580898537615338</v>
       </c>
       <c r="Q165">
-        <v>0.135898596353213</v>
+        <v>0.1502118196895134</v>
       </c>
       <c r="R165">
-        <v>0.09793322838785715</v>
+        <v>0.1006098296397761</v>
       </c>
       <c r="S165">
-        <v>0.05103568149023117</v>
+        <v>0.04671264887683284</v>
       </c>
       <c r="T165">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="U165">
-        <v>35.66255412683832</v>
+        <v>31.83871796563923</v>
       </c>
       <c r="V165">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="W165">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="X165" t="inlineStr">
         <is>
@@ -14277,61 +14277,61 @@
         </is>
       </c>
       <c r="E166">
-        <v>120.2865464092231</v>
+        <v>120.2817425516014</v>
       </c>
       <c r="F166">
-        <v>6931</v>
+        <v>6389</v>
       </c>
       <c r="G166">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="H166">
-        <v>301</v>
+        <v>260</v>
       </c>
       <c r="I166">
-        <v>19.35913621263123</v>
+        <v>19.64653846153885</v>
       </c>
       <c r="J166">
-        <v>0.9714734061778981</v>
+        <v>0.9202194675563768</v>
       </c>
       <c r="K166">
-        <v>369</v>
+        <v>325</v>
       </c>
       <c r="L166">
-        <v>32.35207768744959</v>
+        <v>29.43974358975539</v>
       </c>
       <c r="M166">
-        <v>1.918237088669403</v>
+        <v>1.697026336135394</v>
       </c>
       <c r="N166">
-        <v>0.3654299342359811</v>
+        <v>0.3298945807887415</v>
       </c>
       <c r="O166">
-        <v>0.2300182721313712</v>
+        <v>0.2296744131598031</v>
       </c>
       <c r="P166">
-        <v>0.1163263523053301</v>
+        <v>0.1257781919161809</v>
       </c>
       <c r="Q166">
-        <v>0.1844051539501173</v>
+        <v>0.206222295365044</v>
       </c>
       <c r="R166">
-        <v>0.0759253556662645</v>
+        <v>0.07990752188598031</v>
       </c>
       <c r="S166">
-        <v>0.02789493171092114</v>
+        <v>0.02852299688423354</v>
       </c>
       <c r="T166">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="U166">
-        <v>41.04498697877187</v>
+        <v>37.7903993768</v>
       </c>
       <c r="V166">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="W166">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="X166" t="inlineStr">
         <is>
@@ -14361,61 +14361,61 @@
         </is>
       </c>
       <c r="E167">
-        <v>96.76466016364115</v>
+        <v>96.7990908202499</v>
       </c>
       <c r="F167">
-        <v>2360</v>
+        <v>2202</v>
       </c>
       <c r="G167">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="H167">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="I167">
-        <v>18.10653594770686</v>
+        <v>18.47168458781075</v>
       </c>
       <c r="J167">
-        <v>0.9162009558582487</v>
+        <v>0.9097339944714383</v>
       </c>
       <c r="K167">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="L167">
-        <v>30.99849726776558</v>
+        <v>28.96196969697273</v>
       </c>
       <c r="M167">
-        <v>1.590684370372045</v>
+        <v>1.454139470516524</v>
       </c>
       <c r="N167">
-        <v>0.3182084309132869</v>
+        <v>0.2983766233765546</v>
       </c>
       <c r="O167">
-        <v>0.1579820452770697</v>
+        <v>0.1661255411254809</v>
       </c>
       <c r="P167">
-        <v>0.08304059328647952</v>
+        <v>0.08300865800864454</v>
       </c>
       <c r="Q167">
-        <v>0.2661007025760533</v>
+        <v>0.2860389610388991</v>
       </c>
       <c r="R167">
-        <v>0.1582747853239672</v>
+        <v>0.1573593073592728</v>
       </c>
       <c r="S167">
-        <v>0.01639344262294754</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="T167">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="U167">
-        <v>37.8833333265955</v>
+        <v>35.77713674701282</v>
       </c>
       <c r="V167">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="W167">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="X167" t="inlineStr">
         <is>
@@ -14445,61 +14445,61 @@
         </is>
       </c>
       <c r="E168">
-        <v>177.5208126835752</v>
+        <v>177.6276383910717</v>
       </c>
       <c r="F168">
-        <v>3639</v>
+        <v>3359</v>
       </c>
       <c r="G168">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="H168">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="I168">
-        <v>20.97758169936039</v>
+        <v>19.49668209877963</v>
       </c>
       <c r="J168">
-        <v>1.6156238232143</v>
+        <v>1.39185921187164</v>
       </c>
       <c r="K168">
-        <v>507</v>
+        <v>449</v>
       </c>
       <c r="L168">
-        <v>33.31706114398501</v>
+        <v>31.43151447662182</v>
       </c>
       <c r="M168">
-        <v>6.011425181842553</v>
+        <v>5.588441868630262</v>
       </c>
       <c r="N168">
-        <v>0.4414478529454872</v>
+        <v>0.45170169586498</v>
       </c>
       <c r="O168">
-        <v>0.21073393637886</v>
+        <v>0.1755948902985791</v>
       </c>
       <c r="P168">
-        <v>0.09251046058444103</v>
+        <v>0.1000062439116058</v>
       </c>
       <c r="Q168">
-        <v>0.1444265434780586</v>
+        <v>0.1541742929696537</v>
       </c>
       <c r="R168">
-        <v>0.08659556457597792</v>
+        <v>0.09110011412031804</v>
       </c>
       <c r="S168">
-        <v>0.0242856420370931</v>
+        <v>0.02742276283475768</v>
       </c>
       <c r="T168">
-        <v>366</v>
+        <v>317</v>
       </c>
       <c r="U168">
-        <v>41.31657558324262</v>
+        <v>39.28980020462713</v>
       </c>
       <c r="V168">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="W168">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="X168" t="inlineStr">
         <is>
@@ -14529,61 +14529,61 @@
         </is>
       </c>
       <c r="E169">
-        <v>101.504716108184</v>
+        <v>100.8694587646552</v>
       </c>
       <c r="F169">
-        <v>5310</v>
+        <v>4910</v>
       </c>
       <c r="G169">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="H169">
-        <v>499</v>
+        <v>469</v>
       </c>
       <c r="I169">
-        <v>16.92641950567215</v>
+        <v>17.08162757639744</v>
       </c>
       <c r="J169">
-        <v>2.204932615364847</v>
+        <v>2.239754009691922</v>
       </c>
       <c r="K169">
-        <v>494</v>
+        <v>461</v>
       </c>
       <c r="L169">
-        <v>30.97429149798563</v>
+        <v>31.58416485901605</v>
       </c>
       <c r="M169">
-        <v>3.481672164213154</v>
+        <v>3.589955028914837</v>
       </c>
       <c r="N169">
-        <v>0.3264411822101842</v>
+        <v>0.3281170152100673</v>
       </c>
       <c r="O169">
-        <v>0.3480034676539514</v>
+        <v>0.3338692256421626</v>
       </c>
       <c r="P169">
-        <v>0.1083947024385708</v>
+        <v>0.1139847787519631</v>
       </c>
       <c r="Q169">
-        <v>0.1168884087402796</v>
+        <v>0.1187480996045505</v>
       </c>
       <c r="R169">
-        <v>0.08147717564373259</v>
+        <v>0.08514040079827526</v>
       </c>
       <c r="S169">
-        <v>0.01879506331338279</v>
+        <v>0.02014047999308265</v>
       </c>
       <c r="T169">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="U169">
-        <v>39.86191918858363</v>
+        <v>40.6583603014</v>
       </c>
       <c r="V169">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="W169">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X169" t="inlineStr">
         <is>
@@ -14613,61 +14613,61 @@
         </is>
       </c>
       <c r="E170">
-        <v>275.6259221122639</v>
+        <v>275.3163563257708</v>
       </c>
       <c r="F170">
-        <v>2618</v>
+        <v>2425</v>
       </c>
       <c r="G170">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="H170">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I170">
-        <v>15.2250000000025</v>
+        <v>14.97368421052895</v>
       </c>
       <c r="J170">
-        <v>0.281003252598213</v>
+        <v>0.2843985630111776</v>
       </c>
       <c r="K170">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="L170">
-        <v>42.45426179606028</v>
+        <v>43.4288494078</v>
       </c>
       <c r="M170">
-        <v>4.369679623939644</v>
+        <v>4.402812888855068</v>
       </c>
       <c r="N170">
-        <v>0.403769275536137</v>
+        <v>0.3777942707736345</v>
       </c>
       <c r="O170">
-        <v>0.2565386165004794</v>
+        <v>0.2699591726578528</v>
       </c>
       <c r="P170">
-        <v>0.136356036970437</v>
+        <v>0.1312790461752777</v>
       </c>
       <c r="Q170">
-        <v>0.1138965508930338</v>
+        <v>0.1215398205359157</v>
       </c>
       <c r="R170">
-        <v>0.06881547139402831</v>
+        <v>0.07650044789488426</v>
       </c>
       <c r="S170">
-        <v>0.02062404870623607</v>
+        <v>0.02292724196277005</v>
       </c>
       <c r="T170">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="U170">
-        <v>42.09396022446651</v>
+        <v>43.03307821190663</v>
       </c>
       <c r="V170">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="W170">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X170" t="inlineStr">
         <is>
@@ -14697,61 +14697,61 @@
         </is>
       </c>
       <c r="E171">
-        <v>107.3123525892676</v>
+        <v>107.0088351648626</v>
       </c>
       <c r="F171">
-        <v>5653</v>
+        <v>5289</v>
       </c>
       <c r="G171">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="H171">
-        <v>1419</v>
+        <v>1287</v>
       </c>
       <c r="I171">
-        <v>16.62015503875694</v>
+        <v>16.72960372960381</v>
       </c>
       <c r="J171">
-        <v>5.248838601478357</v>
+        <v>5.156491702430878</v>
       </c>
       <c r="K171">
-        <v>663</v>
+        <v>619</v>
       </c>
       <c r="L171">
-        <v>33.45387129211629</v>
+        <v>33.88839526118498</v>
       </c>
       <c r="M171">
-        <v>4.081380631387401</v>
+        <v>4.133493043908387</v>
       </c>
       <c r="N171">
-        <v>0.2452252923751825</v>
+        <v>0.2448858947411082</v>
       </c>
       <c r="O171">
-        <v>0.3797845644521147</v>
+        <v>0.3696238549786172</v>
       </c>
       <c r="P171">
-        <v>0.1427331538469541</v>
+        <v>0.1512634588053787</v>
       </c>
       <c r="Q171">
-        <v>0.1031968930696899</v>
+        <v>0.1024548305415515</v>
       </c>
       <c r="R171">
-        <v>0.08345214125922623</v>
+        <v>0.08292208344889596</v>
       </c>
       <c r="S171">
-        <v>0.04560795499658236</v>
+        <v>0.04884987748422311</v>
       </c>
       <c r="T171">
-        <v>440</v>
+        <v>412</v>
       </c>
       <c r="U171">
-        <v>44.00250001523045</v>
+        <v>44.5730582657801</v>
       </c>
       <c r="V171">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="W171">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="X171" t="inlineStr">
         <is>
@@ -14781,61 +14781,61 @@
         </is>
       </c>
       <c r="E172">
-        <v>64.48252955887054</v>
+        <v>64.36941311846584</v>
       </c>
       <c r="F172">
-        <v>5206</v>
+        <v>4824</v>
       </c>
       <c r="G172">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="H172">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="I172">
-        <v>23.09191919191932</v>
+        <v>22.82947067239356</v>
       </c>
       <c r="J172">
-        <v>1.341762858952105</v>
+        <v>1.270360166605617</v>
       </c>
       <c r="K172">
-        <v>571</v>
+        <v>521</v>
       </c>
       <c r="L172">
-        <v>19.96068301226024</v>
+        <v>19.49433781190134</v>
       </c>
       <c r="M172">
-        <v>1.726938809130359</v>
+        <v>1.647479983484939</v>
       </c>
       <c r="N172">
-        <v>0.177365182313842</v>
+        <v>0.1728426666128672</v>
       </c>
       <c r="O172">
-        <v>0.3677073910817654</v>
+        <v>0.3559906418221459</v>
       </c>
       <c r="P172">
-        <v>0.1046806074653515</v>
+        <v>0.1068925032814889</v>
       </c>
       <c r="Q172">
-        <v>0.1513446375676466</v>
+        <v>0.1599934041484284</v>
       </c>
       <c r="R172">
-        <v>0.1737924291506872</v>
+        <v>0.1767612666068952</v>
       </c>
       <c r="S172">
-        <v>0.02510975242062592</v>
+        <v>0.02751951752817159</v>
       </c>
       <c r="T172">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="U172">
-        <v>41.31461537538769</v>
+        <v>40.82385056207242</v>
       </c>
       <c r="V172">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="W172">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="X172" t="inlineStr">
         <is>
@@ -14865,61 +14865,61 @@
         </is>
       </c>
       <c r="E173">
-        <v>206.2403346269091</v>
+        <v>205.9435563924936</v>
       </c>
       <c r="F173">
-        <v>2793</v>
+        <v>2591</v>
       </c>
       <c r="G173">
+        <v>16</v>
+      </c>
+      <c r="H173">
+        <v>126</v>
+      </c>
+      <c r="I173">
+        <v>26.05158730158976</v>
+      </c>
+      <c r="J173">
+        <v>1.51701522475603</v>
+      </c>
+      <c r="K173">
+        <v>210</v>
+      </c>
+      <c r="L173">
+        <v>45.01468253967953</v>
+      </c>
+      <c r="M173">
+        <v>4.30287262438636</v>
+      </c>
+      <c r="N173">
+        <v>0.417152588308181</v>
+      </c>
+      <c r="O173">
+        <v>0.2496252364582048</v>
+      </c>
+      <c r="P173">
+        <v>0.1309260977117514</v>
+      </c>
+      <c r="Q173">
+        <v>0.1178203099422248</v>
+      </c>
+      <c r="R173">
+        <v>0.07352338662740571</v>
+      </c>
+      <c r="S173">
+        <v>0.01095238095238286</v>
+      </c>
+      <c r="T173">
+        <v>205</v>
+      </c>
+      <c r="U173">
+        <v>45.79178863447415</v>
+      </c>
+      <c r="V173">
+        <v>105</v>
+      </c>
+      <c r="W173">
         <v>45</v>
-      </c>
-      <c r="H173">
-        <v>130</v>
-      </c>
-      <c r="I173">
-        <v>26.21923076923315</v>
-      </c>
-      <c r="J173">
-        <v>1.459572662851031</v>
-      </c>
-      <c r="K173">
-        <v>233</v>
-      </c>
-      <c r="L173">
-        <v>44.57117310442876</v>
-      </c>
-      <c r="M173">
-        <v>4.34899497665087</v>
-      </c>
-      <c r="N173">
-        <v>0.4403521182176266</v>
-      </c>
-      <c r="O173">
-        <v>0.2421515006704592</v>
-      </c>
-      <c r="P173">
-        <v>0.1308775987960292</v>
-      </c>
-      <c r="Q173">
-        <v>0.1104818244114506</v>
-      </c>
-      <c r="R173">
-        <v>0.06626571326933561</v>
-      </c>
-      <c r="S173">
-        <v>0.009871244635194849</v>
-      </c>
-      <c r="T173">
-        <v>228</v>
-      </c>
-      <c r="U173">
-        <v>45.26016083055789</v>
-      </c>
-      <c r="V173">
-        <v>115</v>
-      </c>
-      <c r="W173">
-        <v>50</v>
       </c>
       <c r="X173" t="inlineStr">
         <is>
@@ -14949,61 +14949,61 @@
         </is>
       </c>
       <c r="E174">
-        <v>52.20867120503812</v>
+        <v>51.91776730213044</v>
       </c>
       <c r="F174">
-        <v>3279</v>
+        <v>3013</v>
       </c>
       <c r="G174">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="H174">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="I174">
-        <v>23.70681818182841</v>
+        <v>23.39727891157007</v>
       </c>
       <c r="J174">
-        <v>1.480595953099085</v>
+        <v>1.342142094328642</v>
       </c>
       <c r="K174">
-        <v>276</v>
+        <v>235</v>
       </c>
       <c r="L174">
-        <v>23.3385869565308</v>
+        <v>22.72531914894425</v>
       </c>
       <c r="M174">
-        <v>1.950604398294619</v>
+        <v>1.77531756455662</v>
       </c>
       <c r="N174">
-        <v>0.2573528880092065</v>
+        <v>0.2786759853191745</v>
       </c>
       <c r="O174">
-        <v>0.2194657013596627</v>
+        <v>0.1964558645526634</v>
       </c>
       <c r="P174">
-        <v>0.1107630836422464</v>
+        <v>0.09236487753363404</v>
       </c>
       <c r="Q174">
-        <v>0.1368804191177475</v>
+        <v>0.1560463300782609</v>
       </c>
       <c r="R174">
-        <v>0.1993062144387649</v>
+        <v>0.2010713124610643</v>
       </c>
       <c r="S174">
-        <v>0.07623169343243769</v>
+        <v>0.07538563005543703</v>
       </c>
       <c r="T174">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="U174">
-        <v>43.79225145409124</v>
+        <v>44.17735505833043</v>
       </c>
       <c r="V174">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="W174">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="X174" t="inlineStr">
         <is>
@@ -15033,61 +15033,61 @@
         </is>
       </c>
       <c r="E175">
-        <v>112.5836961346486</v>
+        <v>112.7303216444644</v>
       </c>
       <c r="F175">
-        <v>3668</v>
+        <v>3443</v>
       </c>
       <c r="G175">
-        <v>153</v>
+        <v>46</v>
       </c>
       <c r="H175">
-        <v>480</v>
+        <v>433</v>
       </c>
       <c r="I175">
-        <v>23.37968750001583</v>
+        <v>21.49480369516374</v>
       </c>
       <c r="J175">
-        <v>3.450184615659226</v>
+        <v>3.092151370966538</v>
       </c>
       <c r="K175">
-        <v>675</v>
+        <v>622</v>
       </c>
       <c r="L175">
-        <v>31.89916049383185</v>
+        <v>30.27802786709936</v>
       </c>
       <c r="M175">
-        <v>7.990551397424201</v>
+        <v>7.576341134402983</v>
       </c>
       <c r="N175">
-        <v>0.2975440822930118</v>
+        <v>0.3078606340375048</v>
       </c>
       <c r="O175">
-        <v>0.31100383195304</v>
+        <v>0.2923935097088167</v>
       </c>
       <c r="P175">
-        <v>0.214773722141783</v>
+        <v>0.2230497883087323</v>
       </c>
       <c r="Q175">
-        <v>0.07327249221819526</v>
+        <v>0.07283290916749968</v>
       </c>
       <c r="R175">
-        <v>0.06617112213809422</v>
+        <v>0.06512643842140932</v>
       </c>
       <c r="S175">
-        <v>0.03723474925571748</v>
+        <v>0.03873672035583987</v>
       </c>
       <c r="T175">
-        <v>450</v>
+        <v>411</v>
       </c>
       <c r="U175">
-        <v>41.43503703904</v>
+        <v>39.25490673471533</v>
       </c>
       <c r="V175">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="W175">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="X175" t="inlineStr">
         <is>
@@ -15117,10 +15117,10 @@
         </is>
       </c>
       <c r="E176">
-        <v>325.8449905482439</v>
+        <v>325.0729166667417</v>
       </c>
       <c r="F176">
-        <v>529</v>
+        <v>480</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15132,43 +15132,43 @@
         <v>20.98928571428572</v>
       </c>
       <c r="J176">
-        <v>0.8407372400760585</v>
+        <v>0.8953125000004479</v>
       </c>
       <c r="K176">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="L176">
-        <v>43.97629629630222</v>
+        <v>46.68245614036053</v>
       </c>
       <c r="M176">
-        <v>3.970289855071722</v>
+        <v>3.929756944443169</v>
       </c>
       <c r="N176">
-        <v>0.3422222222221333</v>
+        <v>0.4052631578946316</v>
       </c>
       <c r="O176">
-        <v>0.3377777777777556</v>
+        <v>0.2421052631578421</v>
       </c>
       <c r="P176">
-        <v>0.08888888888884444</v>
+        <v>0.1052631578946842</v>
       </c>
       <c r="Q176">
-        <v>0.1644444444443555</v>
+        <v>0.1684210526315</v>
       </c>
       <c r="R176">
-        <v>0.04444444444446667</v>
+        <v>0.05263157894739474</v>
       </c>
       <c r="S176">
-        <v>0.02222222222222222</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="T176">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="U176">
-        <v>43.97629629185334</v>
+        <v>46.68245613245789</v>
       </c>
       <c r="V176">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="W176">
         <v>9</v>
@@ -15201,58 +15201,58 @@
         </is>
       </c>
       <c r="E177">
-        <v>140.0132341269369</v>
+        <v>139.4029530485749</v>
       </c>
       <c r="F177">
-        <v>1680</v>
+        <v>1569</v>
       </c>
       <c r="G177">
         <v>0</v>
       </c>
       <c r="H177">
-        <v>436</v>
+        <v>407</v>
       </c>
       <c r="I177">
-        <v>16.44327217126399</v>
+        <v>16.64193284194324</v>
       </c>
       <c r="J177">
-        <v>5.751349206349375</v>
+        <v>5.787932865944818</v>
       </c>
       <c r="K177">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="L177">
-        <v>27.91455026455608</v>
+        <v>28.35000000000409</v>
       </c>
       <c r="M177">
-        <v>3.362390873016887</v>
+        <v>3.231878053963072</v>
       </c>
       <c r="N177">
-        <v>0.1781934996220476</v>
+        <v>0.1794068504594211</v>
       </c>
       <c r="O177">
-        <v>0.1246220710506064</v>
+        <v>0.1318922305763965</v>
       </c>
       <c r="P177">
-        <v>0.5592403628117725</v>
+        <v>0.5537802840434328</v>
       </c>
       <c r="Q177">
-        <v>0.09523809523804445</v>
+        <v>0.09356725146194386</v>
       </c>
       <c r="R177">
-        <v>0.02683295540443281</v>
+        <v>0.0238095238095731</v>
       </c>
       <c r="S177">
-        <v>0.01587301587302116</v>
+        <v>0.01754385964912866</v>
       </c>
       <c r="T177">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="U177">
-        <v>35.72275132275159</v>
+        <v>36.40409356725176</v>
       </c>
       <c r="V177">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="W177">
         <v>13</v>
@@ -15285,61 +15285,61 @@
         </is>
       </c>
       <c r="E178">
-        <v>46.69235477052359</v>
+        <v>46.70899103600772</v>
       </c>
       <c r="F178">
-        <v>2259</v>
+        <v>2072</v>
       </c>
       <c r="G178">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H178">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I178">
-        <v>17.04223484848864</v>
+        <v>16.4714583333375</v>
       </c>
       <c r="J178">
-        <v>0.9035098795433546</v>
+        <v>0.869222402456085</v>
       </c>
       <c r="K178">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="L178">
-        <v>19.10805739513179</v>
+        <v>19.25968137253971</v>
       </c>
       <c r="M178">
-        <v>0.7959208510791771</v>
+        <v>0.7953596537586342</v>
       </c>
       <c r="N178">
-        <v>0.2340271207820232</v>
+        <v>0.2440826330531654</v>
       </c>
       <c r="O178">
-        <v>0.2879533270260609</v>
+        <v>0.2409313725488618</v>
       </c>
       <c r="P178">
-        <v>0.1805739514348755</v>
+        <v>0.2004901960784279</v>
       </c>
       <c r="Q178">
-        <v>0.1811310837800245</v>
+        <v>0.2011087768439978</v>
       </c>
       <c r="R178">
-        <v>0.1030694838641192</v>
+        <v>0.09868113912225736</v>
       </c>
       <c r="S178">
-        <v>0.01324503311258411</v>
+        <v>0.01470588235294265</v>
       </c>
       <c r="T178">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="U178">
-        <v>34.67416667666334</v>
+        <v>35.0638888962926</v>
       </c>
       <c r="V178">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="W178">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X178" t="inlineStr">
         <is>
@@ -15369,61 +15369,61 @@
         </is>
       </c>
       <c r="E179">
-        <v>182.7180944735983</v>
+        <v>182.6716532436029</v>
       </c>
       <c r="F179">
-        <v>2746</v>
+        <v>2551</v>
       </c>
       <c r="G179">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="H179">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="I179">
-        <v>22.26568627450294</v>
+        <v>22.20887445886688</v>
       </c>
       <c r="J179">
-        <v>1.54439493895306</v>
+        <v>1.493104077760095</v>
       </c>
       <c r="K179">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="L179">
-        <v>37.39534883722248</v>
+        <v>35.38589211619502</v>
       </c>
       <c r="M179">
-        <v>4.974219739128936</v>
+        <v>4.820543866580619</v>
       </c>
       <c r="N179">
-        <v>0.3261416838321783</v>
+        <v>0.3201018855962988</v>
       </c>
       <c r="O179">
-        <v>0.2003339637863798</v>
+        <v>0.1937185172484772</v>
       </c>
       <c r="P179">
-        <v>0.1986981904339647</v>
+        <v>0.2044154901740867</v>
       </c>
       <c r="Q179">
-        <v>0.1418325421656527</v>
+        <v>0.1393891945176075</v>
       </c>
       <c r="R179">
-        <v>0.1174897438127174</v>
+        <v>0.1257774020899631</v>
       </c>
       <c r="S179">
-        <v>0.01550387596899496</v>
+        <v>0.01659751037344689</v>
       </c>
       <c r="T179">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="U179">
-        <v>38.47773280040486</v>
+        <v>36.45217392347826</v>
       </c>
       <c r="V179">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="W179">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="X179" t="inlineStr">
         <is>
@@ -15453,61 +15453,61 @@
         </is>
       </c>
       <c r="E180">
-        <v>131.3644986780778</v>
+        <v>131.3647253717541</v>
       </c>
       <c r="F180">
-        <v>3421</v>
+        <v>3168</v>
       </c>
       <c r="G180">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="H180">
-        <v>251</v>
+        <v>206</v>
       </c>
       <c r="I180">
-        <v>19.21673306773267</v>
+        <v>17.90485436894126</v>
       </c>
       <c r="J180">
-        <v>1.555165652330972</v>
+        <v>1.300259373934626</v>
       </c>
       <c r="K180">
-        <v>345</v>
+        <v>307</v>
       </c>
       <c r="L180">
-        <v>27.66449275362927</v>
+        <v>25.64250814332932</v>
       </c>
       <c r="M180">
-        <v>3.885776658129997</v>
+        <v>3.621919806648434</v>
       </c>
       <c r="N180">
-        <v>0.3538536720544174</v>
+        <v>0.3618225304845473</v>
       </c>
       <c r="O180">
-        <v>0.2092004143062565</v>
+        <v>0.1699483483245814</v>
       </c>
       <c r="P180">
-        <v>0.07349393027308464</v>
+        <v>0.07933356985085864</v>
       </c>
       <c r="Q180">
-        <v>0.217874876161385</v>
+        <v>0.2350711149044821</v>
       </c>
       <c r="R180">
-        <v>0.1119033931105067</v>
+        <v>0.1159826404661987</v>
       </c>
       <c r="S180">
-        <v>0.03367371409423913</v>
+        <v>0.03784179596909609</v>
       </c>
       <c r="T180">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="U180">
-        <v>36.50990783824793</v>
+        <v>34.17648649135027</v>
       </c>
       <c r="V180">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="W180">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="X180" t="inlineStr">
         <is>
@@ -15537,61 +15537,61 @@
         </is>
       </c>
       <c r="E181">
-        <v>132.3946595382068</v>
+        <v>132.4300639731214</v>
       </c>
       <c r="F181">
-        <v>3013</v>
+        <v>2801</v>
       </c>
       <c r="G181">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="H181">
-        <v>756</v>
+        <v>686</v>
       </c>
       <c r="I181">
-        <v>25.30116843032923</v>
+        <v>24.58845966957711</v>
       </c>
       <c r="J181">
-        <v>7.078519308550624</v>
+        <v>6.766361541113399</v>
       </c>
       <c r="K181">
-        <v>510</v>
+        <v>464</v>
       </c>
       <c r="L181">
-        <v>39.63588235295471</v>
+        <v>38.3756465517347</v>
       </c>
       <c r="M181">
-        <v>5.61338123283132</v>
+        <v>5.263519333995561</v>
       </c>
       <c r="N181">
-        <v>0.368094262094198</v>
+        <v>0.3671342583841659</v>
       </c>
       <c r="O181">
-        <v>0.2571834197112471</v>
+        <v>0.2342126188875905</v>
       </c>
       <c r="P181">
-        <v>0.154218301110681</v>
+        <v>0.1695071844104467</v>
       </c>
       <c r="Q181">
-        <v>0.143217559377752</v>
+        <v>0.1486035913658709</v>
       </c>
       <c r="R181">
-        <v>0.03622888375276922</v>
+        <v>0.03982054033170754</v>
       </c>
       <c r="S181">
-        <v>0.04105757395348431</v>
+        <v>0.04072180662033319</v>
       </c>
       <c r="T181">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="U181">
-        <v>45.96982200889684</v>
+        <v>44.64937276254166</v>
       </c>
       <c r="V181">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="W181">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="X181" t="inlineStr">
         <is>
@@ -15621,61 +15621,61 @@
         </is>
       </c>
       <c r="E182">
-        <v>211.2941682638401</v>
+        <v>210.9184300019562</v>
       </c>
       <c r="F182">
-        <v>7618</v>
+        <v>7074</v>
       </c>
       <c r="G182">
-        <v>163</v>
+        <v>68</v>
       </c>
       <c r="H182">
-        <v>1521</v>
+        <v>1385</v>
       </c>
       <c r="I182">
-        <v>16.68688362920243</v>
+        <v>16.60054151625653</v>
       </c>
       <c r="J182">
-        <v>4.00352866531759</v>
+        <v>3.915731039353526</v>
       </c>
       <c r="K182">
-        <v>1194</v>
+        <v>1089</v>
       </c>
       <c r="L182">
-        <v>38.09225293132194</v>
+        <v>38.46845730027172</v>
       </c>
       <c r="M182">
-        <v>7.618315587338053</v>
+        <v>7.575816814297835</v>
       </c>
       <c r="N182">
-        <v>0.2614943113625167</v>
+        <v>0.26007732577309</v>
       </c>
       <c r="O182">
-        <v>0.443297559398495</v>
+        <v>0.4346164241706502</v>
       </c>
       <c r="P182">
-        <v>0.1295838493851872</v>
+        <v>0.1374867917042411</v>
       </c>
       <c r="Q182">
-        <v>0.06595411872929782</v>
+        <v>0.06680368940567227</v>
       </c>
       <c r="R182">
-        <v>0.06116947557543677</v>
+        <v>0.06063944337655464</v>
       </c>
       <c r="S182">
-        <v>0.03850068554901213</v>
+        <v>0.04037632556980944</v>
       </c>
       <c r="T182">
-        <v>1147</v>
+        <v>1042</v>
       </c>
       <c r="U182">
-        <v>39.08034001708561</v>
+        <v>39.5730806128572</v>
       </c>
       <c r="V182">
-        <v>445</v>
+        <v>406</v>
       </c>
       <c r="W182">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="X182" t="inlineStr">
         <is>
@@ -15705,61 +15705,61 @@
         </is>
       </c>
       <c r="E183">
-        <v>66.1914800054416</v>
+        <v>65.85433900956545</v>
       </c>
       <c r="F183">
-        <v>5027</v>
+        <v>4637</v>
       </c>
       <c r="G183">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="H183">
-        <v>822</v>
+        <v>754</v>
       </c>
       <c r="I183">
-        <v>19.80125709650949</v>
+        <v>20.00216622457348</v>
       </c>
       <c r="J183">
-        <v>3.982842393154852</v>
+        <v>4.00188671778942</v>
       </c>
       <c r="K183">
-        <v>1082</v>
+        <v>998</v>
       </c>
       <c r="L183">
-        <v>20.12415280345194</v>
+        <v>20.34201736807234</v>
       </c>
       <c r="M183">
-        <v>4.555354820593806</v>
+        <v>4.612846384111918</v>
       </c>
       <c r="N183">
-        <v>0.165445516495759</v>
+        <v>0.1643407303090653</v>
       </c>
       <c r="O183">
-        <v>0.4554146467906146</v>
+        <v>0.4486559597469629</v>
       </c>
       <c r="P183">
-        <v>0.1483320027513847</v>
+        <v>0.1558068406583156</v>
       </c>
       <c r="Q183">
-        <v>0.07894903711850434</v>
+        <v>0.08158603022267104</v>
       </c>
       <c r="R183">
-        <v>0.07052248885250517</v>
+        <v>0.07144822939720581</v>
       </c>
       <c r="S183">
-        <v>0.0813363079913634</v>
+        <v>0.07816220966595511</v>
       </c>
       <c r="T183">
-        <v>368</v>
+        <v>343</v>
       </c>
       <c r="U183">
-        <v>41.37065217309782</v>
+        <v>41.72128279795918</v>
       </c>
       <c r="V183">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="W183">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X183" t="inlineStr">
         <is>
@@ -15789,61 +15789,61 @@
         </is>
       </c>
       <c r="E184">
-        <v>331.3139476039672</v>
+        <v>331.1460300631603</v>
       </c>
       <c r="F184">
-        <v>1646</v>
+        <v>1522</v>
       </c>
       <c r="G184">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="H184">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="I184">
-        <v>21.62560386473333</v>
+        <v>22.0586666666696</v>
       </c>
       <c r="J184">
-        <v>1.984232103859939</v>
+        <v>1.978348254240381</v>
       </c>
       <c r="K184">
-        <v>313</v>
+        <v>278</v>
       </c>
       <c r="L184">
-        <v>46.04036208733035</v>
+        <v>48.07422062350683</v>
       </c>
       <c r="M184">
-        <v>10.97552608794645</v>
+        <v>10.96301967198124</v>
       </c>
       <c r="N184">
-        <v>0.3010015599556102</v>
+        <v>0.3137175836910288</v>
       </c>
       <c r="O184">
-        <v>0.3633866833797731</v>
+        <v>0.3443886039491331</v>
       </c>
       <c r="P184">
-        <v>0.1280372001743738</v>
+        <v>0.1297685023545647</v>
       </c>
       <c r="Q184">
-        <v>0.09224557181504664</v>
+        <v>0.1002621006406856</v>
       </c>
       <c r="R184">
-        <v>0.08960172723412747</v>
+        <v>0.09009115332475325</v>
       </c>
       <c r="S184">
-        <v>0.0257272574407345</v>
+        <v>0.02177205603938273</v>
       </c>
       <c r="T184">
-        <v>312</v>
+        <v>277</v>
       </c>
       <c r="U184">
-        <v>46.01805555780128</v>
+        <v>48.05643802719856</v>
       </c>
       <c r="V184">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="W184">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X184" t="inlineStr">
         <is>
@@ -15873,61 +15873,61 @@
         </is>
       </c>
       <c r="E185">
-        <v>69.20424032455985</v>
+        <v>68.87695734799844</v>
       </c>
       <c r="F185">
-        <v>2237</v>
+        <v>2049</v>
       </c>
       <c r="G185">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H185">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="I185">
-        <v>22.19863387976885</v>
+        <v>22.10906148866116</v>
       </c>
       <c r="J185">
-        <v>1.420958551766784</v>
+        <v>1.315121659493224</v>
       </c>
       <c r="K185">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="L185">
-        <v>20.25612485275406</v>
+        <v>19.94074829930531</v>
       </c>
       <c r="M185">
-        <v>3.268351062028485</v>
+        <v>3.087506747563338</v>
       </c>
       <c r="N185">
-        <v>0.248327484007041</v>
+        <v>0.2691176360454065</v>
       </c>
       <c r="O185">
-        <v>0.2726183600380092</v>
+        <v>0.2484297208369739</v>
       </c>
       <c r="P185">
-        <v>0.1191394771007315</v>
+        <v>0.1154608187385347</v>
       </c>
       <c r="Q185">
-        <v>0.1032196520064622</v>
+        <v>0.1147977438045535</v>
       </c>
       <c r="R185">
-        <v>0.1536625943642806</v>
+        <v>0.1597700288254016</v>
       </c>
       <c r="S185">
-        <v>0.1030324324834986</v>
+        <v>0.09242405174909429</v>
       </c>
       <c r="T185">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="U185">
-        <v>38.07067899475</v>
+        <v>38.1959259137</v>
       </c>
       <c r="V185">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="W185">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="X185" t="inlineStr">
         <is>
@@ -15957,61 +15957,61 @@
         </is>
       </c>
       <c r="E186">
-        <v>190.9268981911393</v>
+        <v>190.8858048676126</v>
       </c>
       <c r="F186">
-        <v>3309</v>
+        <v>3064</v>
       </c>
       <c r="G186">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="H186">
-        <v>313</v>
+        <v>271</v>
       </c>
       <c r="I186">
-        <v>15.09068157614665</v>
+        <v>14.79477244772657</v>
       </c>
       <c r="J186">
-        <v>2.042603994773457</v>
+        <v>1.922642499577242</v>
       </c>
       <c r="K186">
-        <v>345</v>
+        <v>293</v>
       </c>
       <c r="L186">
-        <v>32.31782608696638</v>
+        <v>30.03293515359659</v>
       </c>
       <c r="M186">
-        <v>4.764933003731339</v>
+        <v>4.237324839867004</v>
       </c>
       <c r="N186">
-        <v>0.2886588451806435</v>
+        <v>0.2921068313560068</v>
       </c>
       <c r="O186">
-        <v>0.1286680469290174</v>
+        <v>0.1310255160085017</v>
       </c>
       <c r="P186">
-        <v>0.2897630549803246</v>
+        <v>0.272929194430826</v>
       </c>
       <c r="Q186">
-        <v>0.1693489763055333</v>
+        <v>0.1789262690286314</v>
       </c>
       <c r="R186">
-        <v>0.05429031515993449</v>
+        <v>0.06051248713370579</v>
       </c>
       <c r="S186">
-        <v>0.06927076144467362</v>
+        <v>0.06449970204237132</v>
       </c>
       <c r="T186">
-        <v>290</v>
+        <v>243</v>
       </c>
       <c r="U186">
-        <v>36.03977012425035</v>
+        <v>33.59890261124526</v>
       </c>
       <c r="V186">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="W186">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="X186" t="inlineStr">
         <is>
@@ -16041,61 +16041,61 @@
         </is>
       </c>
       <c r="E187">
-        <v>298.8668312348822</v>
+        <v>298.7917844844593</v>
       </c>
       <c r="F187">
-        <v>2411</v>
+        <v>2236</v>
       </c>
       <c r="G187">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H187">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="I187">
-        <v>20.39945945944757</v>
+        <v>19.75696969695636</v>
       </c>
       <c r="J187">
-        <v>1.923336143035944</v>
+        <v>1.808659857271875</v>
       </c>
       <c r="K187">
-        <v>527</v>
+        <v>463</v>
       </c>
       <c r="L187">
-        <v>34.65547122075009</v>
+        <v>33.50201583873715</v>
       </c>
       <c r="M187">
-        <v>9.268370625069227</v>
+        <v>8.632397843040881</v>
       </c>
       <c r="N187">
-        <v>0.2921806674125503</v>
+        <v>0.306239169624082</v>
       </c>
       <c r="O187">
-        <v>0.2328320471663909</v>
+        <v>0.2079693098142894</v>
       </c>
       <c r="P187">
-        <v>0.148681323415259</v>
+        <v>0.1516805039154762</v>
       </c>
       <c r="Q187">
-        <v>0.1324176276118554</v>
+        <v>0.1419451353951477</v>
       </c>
       <c r="R187">
-        <v>0.1190417764949968</v>
+        <v>0.1179439137924132</v>
       </c>
       <c r="S187">
-        <v>0.07484655789868615</v>
+        <v>0.07422196745840433</v>
       </c>
       <c r="T187">
-        <v>527</v>
+        <v>463</v>
       </c>
       <c r="U187">
-        <v>34.65547122644023</v>
+        <v>33.50201584521382</v>
       </c>
       <c r="V187">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="W187">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="X187" t="inlineStr">
         <is>
@@ -16125,61 +16125,61 @@
         </is>
       </c>
       <c r="E188">
-        <v>259.8652365235545</v>
+        <v>259.7309495895603</v>
       </c>
       <c r="F188">
-        <v>909</v>
+        <v>853</v>
       </c>
       <c r="G188">
         <v>0</v>
       </c>
       <c r="H188">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I188">
-        <v>21.84482758621379</v>
+        <v>22.33333333334074</v>
       </c>
       <c r="J188">
-        <v>1.590759075906853</v>
+        <v>1.597889800702801</v>
       </c>
       <c r="K188">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="L188">
-        <v>36.80291970803431</v>
+        <v>37.01587301588174</v>
       </c>
       <c r="M188">
-        <v>7.79867986798549</v>
+        <v>7.583821805393212</v>
       </c>
       <c r="N188">
-        <v>0.1584513478029854</v>
+        <v>0.1625842256094286</v>
       </c>
       <c r="O188">
-        <v>0.3550768681723737</v>
+        <v>0.3569751132773984</v>
       </c>
       <c r="P188">
-        <v>0.1307239108870299</v>
+        <v>0.1227359630720722</v>
       </c>
       <c r="Q188">
-        <v>0.1444135274104424</v>
+        <v>0.1376207048475286</v>
       </c>
       <c r="R188">
-        <v>0.151613045129484</v>
+        <v>0.1551489282580818</v>
       </c>
       <c r="S188">
-        <v>0.05972130059716058</v>
+        <v>0.06493506493500793</v>
       </c>
       <c r="T188">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="U188">
-        <v>36.80291970437956</v>
+        <v>37.01587300873016</v>
       </c>
       <c r="V188">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W188">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="X188" t="inlineStr">
         <is>
@@ -16209,61 +16209,61 @@
         </is>
       </c>
       <c r="E189">
-        <v>142.2601807548942</v>
+        <v>142.2754345306495</v>
       </c>
       <c r="F189">
-        <v>1881</v>
+        <v>1726</v>
       </c>
       <c r="G189">
         <v>0</v>
       </c>
       <c r="H189">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="I189">
-        <v>23.25399061032066</v>
+        <v>24.42684210525474</v>
       </c>
       <c r="J189">
-        <v>3.393992557149378</v>
+        <v>3.434009269987619</v>
       </c>
       <c r="K189">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="L189">
-        <v>33.34988505747448</v>
+        <v>33.05179487180231</v>
       </c>
       <c r="M189">
-        <v>1.847634237109303</v>
+        <v>1.645654692932994</v>
       </c>
       <c r="N189">
-        <v>0.2990463559428345</v>
+        <v>0.3104747816285461</v>
       </c>
       <c r="O189">
-        <v>0.1794113932044414</v>
+        <v>0.1770357847280308</v>
       </c>
       <c r="P189">
-        <v>0.4006062902613035</v>
+        <v>0.3852916314453385</v>
       </c>
       <c r="Q189">
-        <v>0.07840722495896275</v>
+        <v>0.08745421245422769</v>
       </c>
       <c r="R189">
-        <v>0.006896551724143448</v>
+        <v>0.007692307692313847</v>
       </c>
       <c r="S189">
-        <v>0.0356321839080731</v>
+        <v>0.03205128205130846</v>
       </c>
       <c r="T189">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="U189">
-        <v>41.49182691634615</v>
+        <v>40.58052630947368</v>
       </c>
       <c r="V189">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="W189">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="X189" t="inlineStr">
         <is>
@@ -16293,58 +16293,58 @@
         </is>
       </c>
       <c r="E190">
-        <v>47.13567633836506</v>
+        <v>47.12090345437267</v>
       </c>
       <c r="F190">
-        <v>2447</v>
+        <v>2258</v>
       </c>
       <c r="G190">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H190">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="I190">
-        <v>21.5191176470575</v>
+        <v>22.16885245901984</v>
       </c>
       <c r="J190">
-        <v>0.7484130227490867</v>
+        <v>0.7344405078241802</v>
       </c>
       <c r="K190">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="L190">
-        <v>19.75963718820946</v>
+        <v>20.04136253041453</v>
       </c>
       <c r="M190">
-        <v>1.579403351042334</v>
+        <v>1.605314437555727</v>
       </c>
       <c r="N190">
-        <v>0.2858654572938986</v>
+        <v>0.2905109489049861</v>
       </c>
       <c r="O190">
-        <v>0.2497570456753197</v>
+        <v>0.2436565867222044</v>
       </c>
       <c r="P190">
-        <v>0.1154950869235925</v>
+        <v>0.1158150851580883</v>
       </c>
       <c r="Q190">
-        <v>0.1947845804987619</v>
+        <v>0.2008921330088175</v>
       </c>
       <c r="R190">
-        <v>0.1118885649497272</v>
+        <v>0.1038350133240139</v>
       </c>
       <c r="S190">
-        <v>0.04220926465823061</v>
+        <v>0.04529023288145913</v>
       </c>
       <c r="T190">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="U190">
-        <v>47.80595237380952</v>
+        <v>49.96973683421052</v>
       </c>
       <c r="V190">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="W190">
         <v>10</v>
@@ -16377,61 +16377,61 @@
         </is>
       </c>
       <c r="E191">
-        <v>225.04419309257</v>
+        <v>224.9800772013256</v>
       </c>
       <c r="F191">
-        <v>2058</v>
+        <v>1935</v>
       </c>
       <c r="G191">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="H191">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I191">
-        <v>23.649999999995</v>
+        <v>20.27027027026757</v>
       </c>
       <c r="J191">
-        <v>0.5451492247977741</v>
+        <v>0.4692078060125628</v>
       </c>
       <c r="K191">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="L191">
-        <v>35.48730158729784</v>
+        <v>34.7222741433</v>
       </c>
       <c r="M191">
-        <v>4.695569676235229</v>
+        <v>4.483453433432817</v>
       </c>
       <c r="N191">
-        <v>0.2613267023980823</v>
+        <v>0.2493760198783318</v>
       </c>
       <c r="O191">
-        <v>0.2858938019652857</v>
+        <v>0.299259197448472</v>
       </c>
       <c r="P191">
-        <v>0.180069401498026</v>
+        <v>0.1803552885329393</v>
       </c>
       <c r="Q191">
-        <v>0.1758546347831931</v>
+        <v>0.1851514982940047</v>
       </c>
       <c r="R191">
-        <v>0.03944203944204112</v>
+        <v>0.0379023883696771</v>
       </c>
       <c r="S191">
-        <v>0.05741341991343247</v>
+        <v>0.04795560747667243</v>
       </c>
       <c r="T191">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="U191">
-        <v>35.55898551116</v>
+        <v>34.7960876378723</v>
       </c>
       <c r="V191">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="W191">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="X191" t="inlineStr">
         <is>
@@ -16461,61 +16461,61 @@
         </is>
       </c>
       <c r="E192">
-        <v>182.3357176919781</v>
+        <v>182.3479355488877</v>
       </c>
       <c r="F192">
-        <v>2097</v>
+        <v>1986</v>
       </c>
       <c r="G192">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="H192">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="I192">
-        <v>21.52399425286293</v>
+        <v>22.04470404983552</v>
       </c>
       <c r="J192">
-        <v>1.357232554443684</v>
+        <v>1.347490768715295</v>
       </c>
       <c r="K192">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="L192">
-        <v>29.93911022576295</v>
+        <v>29.67798611110875</v>
       </c>
       <c r="M192">
-        <v>4.863964393578516</v>
+        <v>4.781839543471559</v>
       </c>
       <c r="N192">
-        <v>0.2239011094760522</v>
+        <v>0.2174965769937213</v>
       </c>
       <c r="O192">
-        <v>0.2144606476149482</v>
+        <v>0.2201234272972996</v>
       </c>
       <c r="P192">
-        <v>0.2226373742700295</v>
+        <v>0.2203415872574183</v>
       </c>
       <c r="Q192">
-        <v>0.1809237647277426</v>
+        <v>0.1808827706111059</v>
       </c>
       <c r="R192">
-        <v>0.1334661460332825</v>
+        <v>0.1395833443931412</v>
       </c>
       <c r="S192">
-        <v>0.02461095787788646</v>
+        <v>0.02157229344728917</v>
       </c>
       <c r="T192">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="U192">
-        <v>36.49650092523205</v>
+        <v>36.40857700273099</v>
       </c>
       <c r="V192">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="W192">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X192" t="inlineStr">
         <is>
@@ -16545,61 +16545,61 @@
         </is>
       </c>
       <c r="E193">
-        <v>199.6696091696801</v>
+        <v>199.7861388876136</v>
       </c>
       <c r="F193">
-        <v>5154</v>
+        <v>4764</v>
       </c>
       <c r="G193">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="H193">
-        <v>514</v>
+        <v>456</v>
       </c>
       <c r="I193">
-        <v>18.28323605705992</v>
+        <v>18.06048976607456</v>
       </c>
       <c r="J193">
-        <v>2.139592920857437</v>
+        <v>2.041028949223159</v>
       </c>
       <c r="K193">
-        <v>394</v>
+        <v>351</v>
       </c>
       <c r="L193">
-        <v>45.79458544838731</v>
+        <v>42.04862298194502</v>
       </c>
       <c r="M193">
-        <v>3.377725872040857</v>
+        <v>2.943492683564037</v>
       </c>
       <c r="N193">
-        <v>0.4534419074786903</v>
+        <v>0.4462442202356439</v>
       </c>
       <c r="O193">
-        <v>0.1665635384640873</v>
+        <v>0.1481250365053402</v>
       </c>
       <c r="P193">
-        <v>0.09259641596595737</v>
+        <v>0.1009521578426894</v>
       </c>
       <c r="Q193">
-        <v>0.1530105518240241</v>
+        <v>0.1627914984480102</v>
       </c>
       <c r="R193">
-        <v>0.1101491449303543</v>
+        <v>0.11467926392919</v>
       </c>
       <c r="S193">
-        <v>0.02423844133679924</v>
+        <v>0.02720782303902821</v>
       </c>
       <c r="T193">
-        <v>385</v>
+        <v>342</v>
       </c>
       <c r="U193">
-        <v>46.58186147056</v>
+        <v>42.83630604434386</v>
       </c>
       <c r="V193">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="W193">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="X193" t="inlineStr">
         <is>
@@ -16629,61 +16629,61 @@
         </is>
       </c>
       <c r="E194">
-        <v>94.57976151084819</v>
+        <v>94.55055279570676</v>
       </c>
       <c r="F194">
-        <v>3306</v>
+        <v>3060</v>
       </c>
       <c r="G194">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="H194">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="I194">
-        <v>23.21940298508507</v>
+        <v>22.786666666675</v>
       </c>
       <c r="J194">
-        <v>1.122936130435601</v>
+        <v>1.07562968863411</v>
       </c>
       <c r="K194">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="L194">
-        <v>34.93719646798279</v>
+        <v>34.84086419752148</v>
       </c>
       <c r="M194">
-        <v>1.648426851096729</v>
+        <v>1.592385349583956</v>
       </c>
       <c r="N194">
-        <v>0.382543725590141</v>
+        <v>0.3646723646724689</v>
       </c>
       <c r="O194">
-        <v>0.1969547744381013</v>
+        <v>0.2044950933838911</v>
       </c>
       <c r="P194">
-        <v>0.07114960095088145</v>
+        <v>0.0795821462487637</v>
       </c>
       <c r="Q194">
-        <v>0.1336842701080901</v>
+        <v>0.1416270971826252</v>
       </c>
       <c r="R194">
-        <v>0.1882945604800311</v>
+        <v>0.194808483697457</v>
       </c>
       <c r="S194">
-        <v>0.02737306843263311</v>
+        <v>0.01481481481481185</v>
       </c>
       <c r="T194">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="U194">
-        <v>45.76812297249515</v>
+        <v>46.41240740296667</v>
       </c>
       <c r="V194">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="W194">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="X194" t="inlineStr">
         <is>
@@ -16713,61 +16713,61 @@
         </is>
       </c>
       <c r="E195">
-        <v>96.00124959235964</v>
+        <v>96.01664740591481</v>
       </c>
       <c r="F195">
-        <v>5181</v>
+        <v>4804</v>
       </c>
       <c r="G195">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="H195">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="I195">
-        <v>21.6046666666676</v>
+        <v>20.75550314464764</v>
       </c>
       <c r="J195">
-        <v>1.166168160853254</v>
+        <v>1.033080191794269</v>
       </c>
       <c r="K195">
-        <v>305</v>
+        <v>268</v>
       </c>
       <c r="L195">
-        <v>30.8792896174764</v>
+        <v>30.22083333332873</v>
       </c>
       <c r="M195">
-        <v>1.845800887195057</v>
+        <v>1.720252788625256</v>
       </c>
       <c r="N195">
-        <v>0.2959822916859711</v>
+        <v>0.2995320856874298</v>
       </c>
       <c r="O195">
-        <v>0.2669290749448131</v>
+        <v>0.2552737606648545</v>
       </c>
       <c r="P195">
-        <v>0.0821707455285154</v>
+        <v>0.07858984099328806</v>
       </c>
       <c r="Q195">
-        <v>0.1762578279706056</v>
+        <v>0.1819352146680586</v>
       </c>
       <c r="R195">
-        <v>0.1477980219641213</v>
+        <v>0.153277599623362</v>
       </c>
       <c r="S195">
-        <v>0.03086203790555213</v>
+        <v>0.03139149836266567</v>
       </c>
       <c r="T195">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="U195">
-        <v>39.80056910130342</v>
+        <v>39.60066665581257</v>
       </c>
       <c r="V195">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="W195">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="X195" t="inlineStr">
         <is>
@@ -16797,61 +16797,61 @@
         </is>
       </c>
       <c r="E196">
-        <v>168.3849255561163</v>
+        <v>168.3946555354029</v>
       </c>
       <c r="F196">
-        <v>3576</v>
+        <v>3313</v>
       </c>
       <c r="G196">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="H196">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="I196">
-        <v>15.92550058892827</v>
+        <v>16.13490437158238</v>
       </c>
       <c r="J196">
-        <v>1.994626732853946</v>
+        <v>1.918739872225922</v>
       </c>
       <c r="K196">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="L196">
-        <v>31.49979079498745</v>
+        <v>31.27570754717405</v>
       </c>
       <c r="M196">
-        <v>1.367187565134249</v>
+        <v>1.200139671874761</v>
       </c>
       <c r="N196">
-        <v>0.2931263471534645</v>
+        <v>0.3021565894796415</v>
       </c>
       <c r="O196">
-        <v>0.216500027169436</v>
+        <v>0.215771257044817</v>
       </c>
       <c r="P196">
-        <v>0.3296133782533892</v>
+        <v>0.3197056481253349</v>
       </c>
       <c r="Q196">
-        <v>0.1037326341718502</v>
+        <v>0.1027929224862038</v>
       </c>
       <c r="R196">
-        <v>0.01735405459254979</v>
+        <v>0.01956424079065755</v>
       </c>
       <c r="S196">
-        <v>0.03967355865891423</v>
+        <v>0.04000934207302594</v>
       </c>
       <c r="T196">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="U196">
-        <v>38.87684107073837</v>
+        <v>38.34296535692857</v>
       </c>
       <c r="V196">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="W196">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="X196" t="inlineStr">
         <is>
@@ -16881,61 +16881,61 @@
         </is>
       </c>
       <c r="E197">
-        <v>133.0121253927472</v>
+        <v>132.9359670318189</v>
       </c>
       <c r="F197">
-        <v>6314</v>
+        <v>5832</v>
       </c>
       <c r="G197">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="H197">
-        <v>385</v>
+        <v>335</v>
       </c>
       <c r="I197">
-        <v>19.00056277057507</v>
+        <v>18.76184079603403</v>
       </c>
       <c r="J197">
-        <v>1.336702710170186</v>
+        <v>1.253419223596374</v>
       </c>
       <c r="K197">
-        <v>750</v>
+        <v>656</v>
       </c>
       <c r="L197">
-        <v>31.89533333334026</v>
+        <v>31.02667682927774</v>
       </c>
       <c r="M197">
-        <v>4.907896511590163</v>
+        <v>4.53042842492802</v>
       </c>
       <c r="N197">
-        <v>0.2943738554277867</v>
+        <v>0.2808305427062103</v>
       </c>
       <c r="O197">
-        <v>0.3520387894520176</v>
+        <v>0.3356134533876756</v>
       </c>
       <c r="P197">
-        <v>0.08822991259754694</v>
+        <v>0.09768833164523384</v>
       </c>
       <c r="Q197">
-        <v>0.1187861471012765</v>
+        <v>0.1326230509711442</v>
       </c>
       <c r="R197">
-        <v>0.1178271576194115</v>
+        <v>0.121973799785064</v>
       </c>
       <c r="S197">
-        <v>0.0287441378019964</v>
+        <v>0.03127082150465534</v>
       </c>
       <c r="T197">
-        <v>483</v>
+        <v>423</v>
       </c>
       <c r="U197">
-        <v>42.5910973010352</v>
+        <v>41.20921985437352</v>
       </c>
       <c r="V197">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="W197">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="X197" t="inlineStr">
         <is>
@@ -16965,61 +16965,61 @@
         </is>
       </c>
       <c r="E198">
-        <v>185.2063227953328</v>
+        <v>185.1065647481834</v>
       </c>
       <c r="F198">
-        <v>1202</v>
+        <v>1112</v>
       </c>
       <c r="G198">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H198">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I198">
-        <v>19.20536398466437</v>
+        <v>18.88138528137403</v>
       </c>
       <c r="J198">
-        <v>1.615890183029719</v>
+        <v>1.530845323742286</v>
       </c>
       <c r="K198">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="L198">
-        <v>37.53358024689926</v>
+        <v>36.33942028983827</v>
       </c>
       <c r="M198">
-        <v>5.465682196337737</v>
+        <v>4.886465827338093</v>
       </c>
       <c r="N198">
-        <v>0.2859908609907778</v>
+        <v>0.2574675324674348</v>
       </c>
       <c r="O198">
-        <v>0.3082034632034741</v>
+        <v>0.3009345002823391</v>
       </c>
       <c r="P198">
-        <v>0.1008128908128889</v>
+        <v>0.118345567476</v>
       </c>
       <c r="Q198">
-        <v>0.12196729196724</v>
+        <v>0.1431789949180644</v>
       </c>
       <c r="R198">
-        <v>0.1282275132275111</v>
+        <v>0.1331366459627304</v>
       </c>
       <c r="S198">
-        <v>0.05479797979797333</v>
+        <v>0.04693675889327304</v>
       </c>
       <c r="T198">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="U198">
-        <v>41.26267805071111</v>
+        <v>39.30130717581569</v>
       </c>
       <c r="V198">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="W198">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="X198" t="inlineStr">
         <is>
@@ -17049,58 +17049,58 @@
         </is>
       </c>
       <c r="E199">
-        <v>101.8865131578784</v>
+        <v>102.1437088815632</v>
       </c>
       <c r="F199">
-        <v>684</v>
+        <v>608</v>
       </c>
       <c r="G199">
         <v>2</v>
       </c>
       <c r="H199">
-        <v>358</v>
+        <v>317</v>
       </c>
       <c r="I199">
-        <v>22.31932029796642</v>
+        <v>23.89374342798921</v>
       </c>
       <c r="J199">
-        <v>13.14784356726525</v>
+        <v>13.95250822369965</v>
       </c>
       <c r="K199">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="L199">
-        <v>28.79527363184851</v>
+        <v>29.94593837535462</v>
       </c>
       <c r="M199">
-        <v>7.654761904759707</v>
+        <v>7.851738721802171</v>
       </c>
       <c r="N199">
-        <v>0.1119402985074396</v>
+        <v>0.1176470588234992</v>
       </c>
       <c r="O199">
-        <v>0.09701492537315</v>
+        <v>0.1008403361344672</v>
       </c>
       <c r="P199">
-        <v>0.7313432835822239</v>
+        <v>0.7142857142858235</v>
       </c>
       <c r="Q199">
-        <v>0.03731343283579552</v>
+        <v>0.0420168067226605</v>
       </c>
       <c r="R199">
-        <v>0.00746268656717015</v>
+        <v>0.008403361344544539</v>
       </c>
       <c r="S199">
-        <v>0.01492537313432388</v>
+        <v>0.01680672268907058</v>
       </c>
       <c r="T199">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="U199">
-        <v>39.47901233703703</v>
+        <v>40.98356163424657</v>
       </c>
       <c r="V199">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W199">
         <v>12</v>
@@ -17133,61 +17133,61 @@
         </is>
       </c>
       <c r="E200">
-        <v>171.50762964174</v>
+        <v>171.62717424849</v>
       </c>
       <c r="F200">
-        <v>2581</v>
+        <v>2388</v>
       </c>
       <c r="G200">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="I200">
-        <v>14.36813063062905</v>
+        <v>14.42092731829399</v>
       </c>
       <c r="J200">
-        <v>2.648470605029896</v>
+        <v>2.550545490612538</v>
       </c>
       <c r="K200">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="L200">
-        <v>31.43094362745184</v>
+        <v>29.8963040446251</v>
       </c>
       <c r="M200">
-        <v>2.66204500499547</v>
+        <v>2.337830049369354</v>
       </c>
       <c r="N200">
-        <v>0.2847794117646096</v>
+        <v>0.2906276150626854</v>
       </c>
       <c r="O200">
-        <v>0.3120418552036217</v>
+        <v>0.2923656260058581</v>
       </c>
       <c r="P200">
-        <v>0.2564309954750809</v>
+        <v>0.2583649822980335</v>
       </c>
       <c r="Q200">
-        <v>0.09395927601809889</v>
+        <v>0.1027486321210205</v>
       </c>
       <c r="R200">
-        <v>0.02278846153845845</v>
+        <v>0.02593498551657197</v>
       </c>
       <c r="S200">
-        <v>0.03000000000001544</v>
+        <v>0.02995815899583765</v>
       </c>
       <c r="T200">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="U200">
-        <v>38.98767361059114</v>
+        <v>37.6235173842546</v>
       </c>
       <c r="V200">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="W200">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="X200" t="inlineStr">
         <is>
@@ -17217,61 +17217,61 @@
         </is>
       </c>
       <c r="E201">
-        <v>181.1681759547221</v>
+        <v>181.2186457451578</v>
       </c>
       <c r="F201">
-        <v>1292</v>
+        <v>1179</v>
       </c>
       <c r="G201">
         <v>0</v>
       </c>
       <c r="H201">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="I201">
-        <v>18.93378378378099</v>
+        <v>19.38124999999798</v>
       </c>
       <c r="J201">
-        <v>2.575245098037669</v>
+        <v>2.673635849588514</v>
       </c>
       <c r="K201">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L201">
-        <v>40.73351648353077</v>
+        <v>39.42901234569506</v>
       </c>
       <c r="M201">
-        <v>1.856604747162403</v>
+        <v>1.632513429460098</v>
       </c>
       <c r="N201">
-        <v>0.2677655677655275</v>
+        <v>0.2761316872427531</v>
       </c>
       <c r="O201">
-        <v>0.2663003663002527</v>
+        <v>0.249794238683</v>
       </c>
       <c r="P201">
-        <v>0.3157509157507912</v>
+        <v>0.3053497942385432</v>
       </c>
       <c r="Q201">
-        <v>0.06776556776559341</v>
+        <v>0.07613168724282716</v>
       </c>
       <c r="R201">
-        <v>0.02197802197801099</v>
+        <v>0.02469135802467901</v>
       </c>
       <c r="S201">
-        <v>0.06043956043952747</v>
+        <v>0.06790123456786419</v>
       </c>
       <c r="T201">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="U201">
-        <v>43.7611788520317</v>
+        <v>42.3207762502274</v>
       </c>
       <c r="V201">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="W201">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X201" t="inlineStr">
         <is>
@@ -17301,61 +17301,61 @@
         </is>
       </c>
       <c r="E202">
-        <v>306.2092691289122</v>
+        <v>306.357655820043</v>
       </c>
       <c r="F202">
-        <v>1834</v>
+        <v>1698</v>
       </c>
       <c r="G202">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H202">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="I202">
-        <v>17.06001344085323</v>
+        <v>16.61806201549489</v>
       </c>
       <c r="J202">
-        <v>2.827910219831379</v>
+        <v>2.620958388204399</v>
       </c>
       <c r="K202">
-        <v>339</v>
+        <v>293</v>
       </c>
       <c r="L202">
-        <v>45.15403146509705</v>
+        <v>43.62531285552594</v>
       </c>
       <c r="M202">
-        <v>8.642086642857775</v>
+        <v>7.84192397114132</v>
       </c>
       <c r="N202">
-        <v>0.4051187287379114</v>
+        <v>0.4209394165261092</v>
       </c>
       <c r="O202">
-        <v>0.2577138077962566</v>
+        <v>0.2162627332522901</v>
       </c>
       <c r="P202">
-        <v>0.1502984889069788</v>
+        <v>0.1636559308514266</v>
       </c>
       <c r="Q202">
-        <v>0.125366772529836</v>
+        <v>0.1382229893775181</v>
       </c>
       <c r="R202">
-        <v>0.03014018392311357</v>
+        <v>0.0314591206482413</v>
       </c>
       <c r="S202">
-        <v>0.03136201810599203</v>
+        <v>0.02945980934446997</v>
       </c>
       <c r="T202">
-        <v>339</v>
+        <v>293</v>
       </c>
       <c r="U202">
-        <v>45.15403146185015</v>
+        <v>43.62531285927372</v>
       </c>
       <c r="V202">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="W202">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="X202" t="inlineStr">
         <is>
@@ -17385,13 +17385,13 @@
         </is>
       </c>
       <c r="E203">
-        <v>198.6657771165503</v>
+        <v>198.7359963955555</v>
       </c>
       <c r="F203">
-        <v>2179</v>
+        <v>2126</v>
       </c>
       <c r="G203">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="H203">
         <v>97</v>
@@ -17400,46 +17400,46 @@
         <v>23.01443298969588</v>
       </c>
       <c r="J203">
-        <v>1.217089696712343</v>
+        <v>1.240845930920135</v>
       </c>
       <c r="K203">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="L203">
-        <v>40.57419354840258</v>
+        <v>41.23972602741233</v>
       </c>
       <c r="M203">
-        <v>4.392909655470812</v>
+        <v>4.234313329855409</v>
       </c>
       <c r="N203">
-        <v>0.1902150537634703</v>
+        <v>0.1950913242009514</v>
       </c>
       <c r="O203">
-        <v>0.4337634408602903</v>
+        <v>0.4262557077626096</v>
       </c>
       <c r="P203">
-        <v>0.1351612903224774</v>
+        <v>0.1297945205478493</v>
       </c>
       <c r="Q203">
-        <v>0.1025806451612645</v>
+        <v>0.1020547945205274</v>
       </c>
       <c r="R203">
-        <v>0.09225806451617355</v>
+        <v>0.09794520547949931</v>
       </c>
       <c r="S203">
-        <v>0.04602150537633548</v>
+        <v>0.04885844748857534</v>
       </c>
       <c r="T203">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="U203">
-        <v>40.76623378246753</v>
+        <v>41.44827587793104</v>
       </c>
       <c r="V203">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="W203">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X203" t="inlineStr">
         <is>
@@ -17469,61 +17469,61 @@
         </is>
       </c>
       <c r="E204">
-        <v>127.2722864696968</v>
+        <v>126.1418524421525</v>
       </c>
       <c r="F204">
-        <v>5349</v>
+        <v>4945</v>
       </c>
       <c r="G204">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="H204">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="I204">
-        <v>20.55826822916094</v>
+        <v>21.04873511904107</v>
       </c>
       <c r="J204">
-        <v>1.164685214407275</v>
+        <v>1.136279314836408</v>
       </c>
       <c r="K204">
-        <v>335</v>
+        <v>293</v>
       </c>
       <c r="L204">
-        <v>33.30875621890448</v>
+        <v>34.53048919226485</v>
       </c>
       <c r="M204">
-        <v>2.583094416885248</v>
+        <v>2.531844698871747</v>
       </c>
       <c r="N204">
-        <v>0.3133683981569761</v>
+        <v>0.293782980827942</v>
       </c>
       <c r="O204">
-        <v>0.2725696211063761</v>
+        <v>0.2793884746438089</v>
       </c>
       <c r="P204">
-        <v>0.115370689655251</v>
+        <v>0.1139903789573689</v>
       </c>
       <c r="Q204">
-        <v>0.1644344533489704</v>
+        <v>0.1808380268665703</v>
       </c>
       <c r="R204">
-        <v>0.1032848013626227</v>
+        <v>0.1037556602610191</v>
       </c>
       <c r="S204">
-        <v>0.03097203636990477</v>
+        <v>0.02824447844340649</v>
       </c>
       <c r="T204">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="U204">
-        <v>41.07304527818806</v>
+        <v>42.6654929652568</v>
       </c>
       <c r="V204">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="W204">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="X204" t="inlineStr">
         <is>
@@ -17553,61 +17553,61 @@
         </is>
       </c>
       <c r="E205">
-        <v>342.1755140174707</v>
+        <v>342.2504399738098</v>
       </c>
       <c r="F205">
-        <v>2390</v>
+        <v>2224</v>
       </c>
       <c r="G205">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="H205">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="I205">
-        <v>15.60270092227684</v>
+        <v>15.16516452075554</v>
       </c>
       <c r="J205">
-        <v>2.18899672265246</v>
+        <v>2.11497399601563</v>
       </c>
       <c r="K205">
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="L205">
-        <v>46.05169014084732</v>
+        <v>44.87837423313528</v>
       </c>
       <c r="M205">
-        <v>6.989949798943511</v>
+        <v>6.731106123864744</v>
       </c>
       <c r="N205">
-        <v>0.4251589652402394</v>
+        <v>0.4353724928229785</v>
       </c>
       <c r="O205">
-        <v>0.2072078804204423</v>
+        <v>0.1918981519915491</v>
       </c>
       <c r="P205">
-        <v>0.1350338951614578</v>
+        <v>0.1409111435040396</v>
       </c>
       <c r="Q205">
-        <v>0.1231532450347183</v>
+        <v>0.127973625727989</v>
       </c>
       <c r="R205">
-        <v>0.06714295861027071</v>
+        <v>0.05777837517380092</v>
       </c>
       <c r="S205">
-        <v>0.04230305553276253</v>
+        <v>0.04606621077954202</v>
       </c>
       <c r="T205">
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="U205">
-        <v>46.05169013295578</v>
+        <v>44.87837422545798</v>
       </c>
       <c r="V205">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="W205">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="X205" t="inlineStr">
         <is>
@@ -17637,61 +17637,61 @@
         </is>
       </c>
       <c r="E206">
-        <v>106.0526593268863</v>
+        <v>105.9711095286021</v>
       </c>
       <c r="F206">
-        <v>5733</v>
+        <v>5386</v>
       </c>
       <c r="G206">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="H206">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="I206">
-        <v>22.22134703194246</v>
+        <v>22.73823899369245</v>
       </c>
       <c r="J206">
-        <v>1.295955557715776</v>
+        <v>1.280860232526182</v>
       </c>
       <c r="K206">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="L206">
-        <v>34.83641666666475</v>
+        <v>35.02001763668333</v>
       </c>
       <c r="M206">
-        <v>2.128354731195599</v>
+        <v>2.182669453016032</v>
       </c>
       <c r="N206">
-        <v>0.1929154403917575</v>
+        <v>0.1935613125838809</v>
       </c>
       <c r="O206">
-        <v>0.3545772598101125</v>
+        <v>0.3434679997990344</v>
       </c>
       <c r="P206">
-        <v>0.1629071253646217</v>
+        <v>0.1670974871583294</v>
       </c>
       <c r="Q206">
-        <v>0.1448214565299263</v>
+        <v>0.1506047159046865</v>
       </c>
       <c r="R206">
-        <v>0.1115423630837527</v>
+        <v>0.1100977387129447</v>
       </c>
       <c r="S206">
-        <v>0.03323635482042175</v>
+        <v>0.03517074584171614</v>
       </c>
       <c r="T206">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="U206">
-        <v>45.15504866471824</v>
+        <v>45.54063307803411</v>
       </c>
       <c r="V206">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="W206">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="X206" t="inlineStr">
         <is>
@@ -17721,61 +17721,61 @@
         </is>
       </c>
       <c r="E207">
-        <v>76.8958026778451</v>
+        <v>76.88900214651856</v>
       </c>
       <c r="F207">
-        <v>2268</v>
+        <v>2084</v>
       </c>
       <c r="G207">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="H207">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I207">
-        <v>16.96797752807966</v>
+        <v>17.33092105261171</v>
       </c>
       <c r="J207">
-        <v>0.9411062860845025</v>
+        <v>0.8965590483878176</v>
       </c>
       <c r="K207">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="L207">
-        <v>18.51527293844425</v>
+        <v>18.31531713900203</v>
       </c>
       <c r="M207">
-        <v>2.890089966518871</v>
+        <v>2.721556643025183</v>
       </c>
       <c r="N207">
-        <v>0.1761358209465934</v>
+        <v>0.1876131752869324</v>
       </c>
       <c r="O207">
-        <v>0.2732677333208202</v>
+        <v>0.270643287832532</v>
       </c>
       <c r="P207">
-        <v>0.2990843427923833</v>
+        <v>0.2921173921258867</v>
       </c>
       <c r="Q207">
-        <v>0.1105788676895585</v>
+        <v>0.1199630440040781</v>
       </c>
       <c r="R207">
-        <v>0.1044010590707139</v>
+        <v>0.09999978161366357</v>
       </c>
       <c r="S207">
-        <v>0.03653217618006865</v>
+        <v>0.02966331913698664</v>
       </c>
       <c r="T207">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="U207">
-        <v>36.97857143162959</v>
+        <v>37.78625000124624</v>
       </c>
       <c r="V207">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="W207">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="X207" t="inlineStr">
         <is>
@@ -17805,61 +17805,61 @@
         </is>
       </c>
       <c r="E208">
-        <v>264.0179671457526</v>
+        <v>264.0945796459436</v>
       </c>
       <c r="F208">
-        <v>974</v>
+        <v>904</v>
       </c>
       <c r="G208">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H208">
-        <v>442</v>
+        <v>410</v>
       </c>
       <c r="I208">
-        <v>15.77179487178439</v>
+        <v>14.96373983738707</v>
       </c>
       <c r="J208">
-        <v>8.283504449006726</v>
+        <v>7.919395280236228</v>
       </c>
       <c r="K208">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="L208">
-        <v>41.51621621620108</v>
+        <v>39.54242424240727</v>
       </c>
       <c r="M208">
-        <v>9.81160164270965</v>
+        <v>8.970685840709292</v>
       </c>
       <c r="N208">
-        <v>0.2821621621620411</v>
+        <v>0.2799999999998642</v>
       </c>
       <c r="O208">
-        <v>0.2983783783783513</v>
+        <v>0.2799999999999697</v>
       </c>
       <c r="P208">
-        <v>0.09513513513508001</v>
+        <v>0.1006060606059988</v>
       </c>
       <c r="Q208">
-        <v>0.1535135135134006</v>
+        <v>0.1721212121210855</v>
       </c>
       <c r="R208">
-        <v>0.1264864864864259</v>
+        <v>0.1236363636362958</v>
       </c>
       <c r="S208">
-        <v>0.04432432432432703</v>
+        <v>0.04363636363636667</v>
       </c>
       <c r="T208">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="U208">
-        <v>41.62228261249891</v>
+        <v>39.64939024816951</v>
       </c>
       <c r="V208">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="W208">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="X208" t="inlineStr">
         <is>
@@ -17889,58 +17889,58 @@
         </is>
       </c>
       <c r="E209">
-        <v>85.24272289305775</v>
+        <v>85.25070702903494</v>
       </c>
       <c r="F209">
-        <v>3467</v>
+        <v>3211</v>
       </c>
       <c r="G209">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="H209">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="I209">
-        <v>20.18293010753468</v>
+        <v>20.80650793651047</v>
       </c>
       <c r="J209">
-        <v>0.8642201763344972</v>
+        <v>0.823186344239085</v>
       </c>
       <c r="K209">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="L209">
-        <v>19.83015267175458</v>
+        <v>20.22340425531872</v>
       </c>
       <c r="M209">
-        <v>1.511483498207209</v>
+        <v>1.504924723850636</v>
       </c>
       <c r="N209">
-        <v>0.3071771691357771</v>
+        <v>0.2925161186331132</v>
       </c>
       <c r="O209">
-        <v>0.2117379612587786</v>
+        <v>0.2010976789168128</v>
       </c>
       <c r="P209">
-        <v>0.135441915001392</v>
+        <v>0.1460079518590872</v>
       </c>
       <c r="Q209">
-        <v>0.1662540397335592</v>
+        <v>0.1753648183967523</v>
       </c>
       <c r="R209">
-        <v>0.137571701079808</v>
+        <v>0.1433870621104426</v>
       </c>
       <c r="S209">
-        <v>0.04181721379077481</v>
+        <v>0.04162637008384596</v>
       </c>
       <c r="T209">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="U209">
-        <v>38.6996563491433</v>
+        <v>39.3962121109875</v>
       </c>
       <c r="V209">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="W209">
         <v>12</v>
@@ -17973,61 +17973,61 @@
         </is>
       </c>
       <c r="E210">
-        <v>207.5830688386587</v>
+        <v>207.7490667483004</v>
       </c>
       <c r="F210">
-        <v>3625</v>
+        <v>3349</v>
       </c>
       <c r="G210">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="H210">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="I210">
-        <v>21.0635582010619</v>
+        <v>19.57754303599578</v>
       </c>
       <c r="J210">
-        <v>1.612818598989545</v>
+        <v>1.386224969046588</v>
       </c>
       <c r="K210">
-        <v>456</v>
+        <v>403</v>
       </c>
       <c r="L210">
-        <v>42.40383771930614</v>
+        <v>41.09218362283325</v>
       </c>
       <c r="M210">
-        <v>6.669366607425324</v>
+        <v>6.280816348737176</v>
       </c>
       <c r="N210">
-        <v>0.4702696473687368</v>
+        <v>0.4849701220846899</v>
       </c>
       <c r="O210">
-        <v>0.2084494897664688</v>
+        <v>0.1713473134826347</v>
       </c>
       <c r="P210">
-        <v>0.09691793946766185</v>
+        <v>0.1047011920527395</v>
       </c>
       <c r="Q210">
-        <v>0.1527753918717384</v>
+        <v>0.1629418826141764</v>
       </c>
       <c r="R210">
-        <v>0.053148672626234</v>
+        <v>0.05517566927434963</v>
       </c>
       <c r="S210">
-        <v>0.01843885889938267</v>
+        <v>0.02086382049160918</v>
       </c>
       <c r="T210">
-        <v>440</v>
+        <v>387</v>
       </c>
       <c r="U210">
-        <v>43.50212120280182</v>
+        <v>42.28664942825013</v>
       </c>
       <c r="V210">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="W210">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="X210" t="inlineStr">
         <is>
@@ -18057,61 +18057,61 @@
         </is>
       </c>
       <c r="E211">
-        <v>99.29185154334876</v>
+        <v>99.018427956168</v>
       </c>
       <c r="F211">
-        <v>4968</v>
+        <v>4581</v>
       </c>
       <c r="G211">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="H211">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="I211">
-        <v>21.62725490196427</v>
+        <v>21.56921296297032</v>
       </c>
       <c r="J211">
-        <v>1.285624847505629</v>
+        <v>1.192749234317107</v>
       </c>
       <c r="K211">
-        <v>502</v>
+        <v>422</v>
       </c>
       <c r="L211">
-        <v>31.77028552456753</v>
+        <v>32.96844391785047</v>
       </c>
       <c r="M211">
-        <v>4.438135258016129</v>
+        <v>4.152511670339122</v>
       </c>
       <c r="N211">
-        <v>0.3069453666618159</v>
+        <v>0.3248497015740086</v>
       </c>
       <c r="O211">
-        <v>0.3729081393022948</v>
+        <v>0.3369665543359052</v>
       </c>
       <c r="P211">
-        <v>0.05379861654550418</v>
+        <v>0.05451873342616848</v>
       </c>
       <c r="Q211">
-        <v>0.1029400708641821</v>
+        <v>0.1106064350090507</v>
       </c>
       <c r="R211">
-        <v>0.1485214398497026</v>
+        <v>0.162459153565286</v>
       </c>
       <c r="S211">
-        <v>0.01488636677668207</v>
+        <v>0.01059942208979716</v>
       </c>
       <c r="T211">
-        <v>340</v>
+        <v>299</v>
       </c>
       <c r="U211">
-        <v>40.66465685509882</v>
+        <v>41.11031214927625</v>
       </c>
       <c r="V211">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="W211">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="X211" t="inlineStr">
         <is>
@@ -18141,61 +18141,61 @@
         </is>
       </c>
       <c r="E212">
-        <v>98.46200035903563</v>
+        <v>98.38279942456766</v>
       </c>
       <c r="F212">
-        <v>2689</v>
+        <v>2493</v>
       </c>
       <c r="G212">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="H212">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="I212">
-        <v>17.9913711583922</v>
+        <v>17.18082010581984</v>
       </c>
       <c r="J212">
-        <v>1.127639131114775</v>
+        <v>1.049828168297934</v>
       </c>
       <c r="K212">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="L212">
-        <v>27.59772357724146</v>
+        <v>27.29477477478108</v>
       </c>
       <c r="M212">
-        <v>2.714454883240202</v>
+        <v>2.643469386695557</v>
       </c>
       <c r="N212">
-        <v>0.3122866113570342</v>
+        <v>0.2973986774496865</v>
       </c>
       <c r="O212">
-        <v>0.2838406836752439</v>
+        <v>0.2712829197482433</v>
       </c>
       <c r="P212">
-        <v>0.08390722142522877</v>
+        <v>0.08757286698471298</v>
       </c>
       <c r="Q212">
-        <v>0.1603112719106151</v>
+        <v>0.1722368148198708</v>
       </c>
       <c r="R212">
-        <v>0.1300989749027683</v>
+        <v>0.1441637289463108</v>
       </c>
       <c r="S212">
-        <v>0.02955523672883024</v>
+        <v>0.02734499205086594</v>
       </c>
       <c r="T212">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="U212">
-        <v>33.95990338092029</v>
+        <v>33.85628415218853</v>
       </c>
       <c r="V212">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="W212">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="X212" t="inlineStr">
         <is>
@@ -18225,61 +18225,61 @@
         </is>
       </c>
       <c r="E213">
-        <v>261.3827160494523</v>
+        <v>261.4787735849799</v>
       </c>
       <c r="F213">
-        <v>891</v>
+        <v>848</v>
       </c>
       <c r="G213">
         <v>0</v>
       </c>
       <c r="H213">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="I213">
-        <v>28.46231155776331</v>
+        <v>28.38659793811804</v>
       </c>
       <c r="J213">
-        <v>6.852974186301426</v>
+        <v>6.987028301880461</v>
       </c>
       <c r="K213">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="L213">
-        <v>32.16599099097027</v>
+        <v>31.9406103286169</v>
       </c>
       <c r="M213">
-        <v>6.851814440698754</v>
+        <v>6.75821540880046</v>
       </c>
       <c r="N213">
-        <v>0.2054848966614594</v>
+        <v>0.2000828500415352</v>
       </c>
       <c r="O213">
-        <v>0.2448330683624987</v>
+        <v>0.2551781275890831</v>
       </c>
       <c r="P213">
-        <v>0.2527821939586351</v>
+        <v>0.2493786246892958</v>
       </c>
       <c r="Q213">
-        <v>0.1685214626390905</v>
+        <v>0.1756420878210239</v>
       </c>
       <c r="R213">
-        <v>0.06756756756765811</v>
+        <v>0.06338028169022113</v>
       </c>
       <c r="S213">
-        <v>0.06081081081089865</v>
+        <v>0.05633802816909154</v>
       </c>
       <c r="T213">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="U213">
-        <v>32.16599100990945</v>
+        <v>31.94061034835634</v>
       </c>
       <c r="V213">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="W213">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X213" t="inlineStr">
         <is>
@@ -18309,61 +18309,61 @@
         </is>
       </c>
       <c r="E214">
-        <v>312.1871710613437</v>
+        <v>312.3394897051234</v>
       </c>
       <c r="F214">
-        <v>2002</v>
+        <v>1849</v>
       </c>
       <c r="G214">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="H214">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="I214">
-        <v>20.09285714285953</v>
+        <v>17.73146853147133</v>
       </c>
       <c r="J214">
-        <v>1.836026650165611</v>
+        <v>1.512020202072073</v>
       </c>
       <c r="K214">
-        <v>320</v>
+        <v>278</v>
       </c>
       <c r="L214">
-        <v>48.57901041668219</v>
+        <v>47.72763788970396</v>
       </c>
       <c r="M214">
-        <v>8.485225375597022</v>
+        <v>7.918562034586446</v>
       </c>
       <c r="N214">
-        <v>0.4124003820377375</v>
+        <v>0.4207486411944964</v>
       </c>
       <c r="O214">
-        <v>0.2639955811547737</v>
+        <v>0.2355344819047683</v>
       </c>
       <c r="P214">
-        <v>0.1257207315664075</v>
+        <v>0.1339231442490978</v>
       </c>
       <c r="Q214">
-        <v>0.1244779416225881</v>
+        <v>0.1324925946734784</v>
       </c>
       <c r="R214">
-        <v>0.04783974023308312</v>
+        <v>0.05147020458484748</v>
       </c>
       <c r="S214">
-        <v>0.02556562338525125</v>
+        <v>0.02583093339309856</v>
       </c>
       <c r="T214">
-        <v>320</v>
+        <v>278</v>
       </c>
       <c r="U214">
-        <v>48.57901041823156</v>
+        <v>47.72763789364784</v>
       </c>
       <c r="V214">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="W214">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="X214" t="inlineStr">
         <is>
@@ -18393,61 +18393,61 @@
         </is>
       </c>
       <c r="E215">
-        <v>104.5647119617188</v>
+        <v>104.19871542303</v>
       </c>
       <c r="F215">
-        <v>2756</v>
+        <v>2533</v>
       </c>
       <c r="G215">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H215">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="I215">
-        <v>20.55474649407055</v>
+        <v>19.75146713615423</v>
       </c>
       <c r="J215">
-        <v>2.910641883551473</v>
+        <v>2.802893419292665</v>
       </c>
       <c r="K215">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="L215">
-        <v>30.96938534278936</v>
+        <v>30.40220492866381</v>
       </c>
       <c r="M215">
-        <v>3.264493533104655</v>
+        <v>3.212769118529953</v>
       </c>
       <c r="N215">
-        <v>0.2787825817062036</v>
+        <v>0.2592089028838498</v>
       </c>
       <c r="O215">
-        <v>0.3912769076480496</v>
+        <v>0.3943194083920233</v>
       </c>
       <c r="P215">
-        <v>0.08789144461528511</v>
+        <v>0.08476804428603268</v>
       </c>
       <c r="Q215">
-        <v>0.1094224329533269</v>
+        <v>0.1161755879098763</v>
       </c>
       <c r="R215">
-        <v>0.1040034164335011</v>
+        <v>0.1141204802889</v>
       </c>
       <c r="S215">
-        <v>0.02862321664355284</v>
+        <v>0.03140757623922918</v>
       </c>
       <c r="T215">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="U215">
-        <v>39.2750858874567</v>
+        <v>38.59299240321932</v>
       </c>
       <c r="V215">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="W215">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X215" t="inlineStr">
         <is>
@@ -18477,61 +18477,61 @@
         </is>
       </c>
       <c r="E216">
-        <v>260.7656796700164</v>
+        <v>260.6287085671551</v>
       </c>
       <c r="F216">
-        <v>1157</v>
+        <v>1083</v>
       </c>
       <c r="G216">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="H216">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I216">
-        <v>12.40860215053269</v>
+        <v>12.09302325580977</v>
       </c>
       <c r="J216">
-        <v>1.395260165997685</v>
+        <v>1.352092347238322</v>
       </c>
       <c r="K216">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="L216">
-        <v>41.22926829269329</v>
+        <v>39.6662251655755</v>
       </c>
       <c r="M216">
-        <v>6.460498407996644</v>
+        <v>6.094918428488382</v>
       </c>
       <c r="N216">
-        <v>0.3624843652283171</v>
+        <v>0.3407114960095298</v>
       </c>
       <c r="O216">
-        <v>0.2617964352719939</v>
+        <v>0.2578451349974238</v>
       </c>
       <c r="P216">
-        <v>0.07851782363977378</v>
+        <v>0.08527763627101258</v>
       </c>
       <c r="Q216">
-        <v>0.1903298936835762</v>
+        <v>0.2067159110205729</v>
       </c>
       <c r="R216">
-        <v>0.04359756097563353</v>
+        <v>0.04072847682121589</v>
       </c>
       <c r="S216">
-        <v>0.06327392120076768</v>
+        <v>0.06872134488030397</v>
       </c>
       <c r="T216">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="U216">
-        <v>40.49447853742331</v>
+        <v>38.85733334266667</v>
       </c>
       <c r="V216">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="W216">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="X216" t="inlineStr">
         <is>
@@ -18561,61 +18561,61 @@
         </is>
       </c>
       <c r="E217">
-        <v>158.3134117514913</v>
+        <v>157.9727047959941</v>
       </c>
       <c r="F217">
-        <v>4016</v>
+        <v>3731</v>
       </c>
       <c r="G217">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="H217">
-        <v>1071</v>
+        <v>954</v>
       </c>
       <c r="I217">
-        <v>15.9734204792958</v>
+        <v>16.31292802235755</v>
       </c>
       <c r="J217">
-        <v>5.482126545039733</v>
+        <v>5.395663415941938</v>
       </c>
       <c r="K217">
-        <v>653</v>
+        <v>597</v>
       </c>
       <c r="L217">
-        <v>32.75252679939739</v>
+        <v>33.48643216081223</v>
       </c>
       <c r="M217">
-        <v>5.778729881305829</v>
+        <v>5.824545484675559</v>
       </c>
       <c r="N217">
-        <v>0.2596437603644548</v>
+        <v>0.2521731583215628</v>
       </c>
       <c r="O217">
-        <v>0.4080656682282711</v>
+        <v>0.4027920960687521</v>
       </c>
       <c r="P217">
-        <v>0.1262424043259969</v>
+        <v>0.1347341541455196</v>
       </c>
       <c r="Q217">
-        <v>0.08322046091553904</v>
+        <v>0.08600160967813836</v>
       </c>
       <c r="R217">
-        <v>0.08151138904851669</v>
+        <v>0.08078213911002044</v>
       </c>
       <c r="S217">
-        <v>0.04131631711704104</v>
+        <v>0.04351684267576247</v>
       </c>
       <c r="T217">
-        <v>441</v>
+        <v>408</v>
       </c>
       <c r="U217">
-        <v>42.33968254081292</v>
+        <v>43.06323529484926</v>
       </c>
       <c r="V217">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="W217">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="X217" t="inlineStr">
         <is>
